--- a/data/summary/GPA_Summary.xlsx
+++ b/data/summary/GPA_Summary.xlsx
@@ -1514,54 +1514,54 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>21000808</t>
+          <t>21001707</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.1706</v>
+        <v>3.7176</v>
       </c>
       <c r="C39" t="n">
-        <v>3.7706</v>
+        <v>3.6176</v>
       </c>
       <c r="D39" t="n">
-        <v>3.4773</v>
+        <v>3.7091</v>
       </c>
       <c r="E39" t="n">
-        <v>3.74</v>
+        <v>3.4733</v>
       </c>
       <c r="F39" t="n">
-        <v>3.4632</v>
+        <v>2.9889</v>
       </c>
       <c r="G39" t="n">
-        <v>3.5156</v>
+        <v>3.5079</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>21001707</t>
+          <t>21000913</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.7176</v>
+        <v>3.6824</v>
       </c>
       <c r="C40" t="n">
-        <v>3.6176</v>
+        <v>3.6706</v>
       </c>
       <c r="D40" t="n">
-        <v>3.7091</v>
+        <v>3.4818</v>
       </c>
       <c r="E40" t="n">
-        <v>3.4733</v>
+        <v>3.3133</v>
       </c>
       <c r="F40" t="n">
-        <v>2.9889</v>
+        <v>3.4</v>
       </c>
       <c r="G40" t="n">
-        <v>3.5079</v>
+        <v>3.5065</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1570,26 +1570,26 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>21000913</t>
+          <t>21001332</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.6824</v>
+        <v>3.2882</v>
       </c>
       <c r="C41" t="n">
-        <v>3.6706</v>
+        <v>3.7059</v>
       </c>
       <c r="D41" t="n">
-        <v>3.4818</v>
+        <v>3.5773</v>
       </c>
       <c r="E41" t="n">
-        <v>3.3133</v>
+        <v>3.8</v>
       </c>
       <c r="F41" t="n">
-        <v>3.4</v>
+        <v>3.22</v>
       </c>
       <c r="G41" t="n">
-        <v>3.5065</v>
+        <v>3.5055</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1598,29 +1598,29 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21001332</t>
+          <t>21000808</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.2882</v>
+        <v>3.1706</v>
       </c>
       <c r="C42" t="n">
-        <v>3.7059</v>
+        <v>3.7706</v>
       </c>
       <c r="D42" t="n">
-        <v>3.5773</v>
+        <v>3.4773</v>
       </c>
       <c r="E42" t="n">
-        <v>3.8</v>
+        <v>3.74</v>
       </c>
       <c r="F42" t="n">
-        <v>3.22</v>
+        <v>3.4632</v>
       </c>
       <c r="G42" t="n">
-        <v>3.5055</v>
+        <v>3.5</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -1766,82 +1766,82 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>21000794</t>
+          <t>21000212</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>3.4294</v>
+        <v>2.8294</v>
       </c>
       <c r="C48" t="n">
-        <v>3.3588</v>
+        <v>3.6882</v>
       </c>
       <c r="D48" t="n">
-        <v>3.4136</v>
+        <v>3.6909</v>
       </c>
       <c r="E48" t="n">
-        <v>3.4333</v>
+        <v>3.48</v>
       </c>
       <c r="F48" t="n">
-        <v>3.71</v>
+        <v>3.625</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4747</v>
+        <v>3.4736</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21000212</t>
+          <t>21001553</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.8294</v>
+        <v>3.6882</v>
       </c>
       <c r="C49" t="n">
-        <v>3.6882</v>
+        <v>3.6235</v>
       </c>
       <c r="D49" t="n">
-        <v>3.6909</v>
+        <v>3.3818</v>
       </c>
       <c r="E49" t="n">
-        <v>3.48</v>
+        <v>3.66</v>
       </c>
       <c r="F49" t="n">
-        <v>3.625</v>
+        <v>3.0778</v>
       </c>
       <c r="G49" t="n">
-        <v>3.4736</v>
+        <v>3.4719</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>21001553</t>
+          <t>21002096</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>3.6882</v>
+        <v>2.8588</v>
       </c>
       <c r="C50" t="n">
-        <v>3.6235</v>
+        <v>3.6176</v>
       </c>
       <c r="D50" t="n">
-        <v>3.3818</v>
+        <v>3.5545</v>
       </c>
       <c r="E50" t="n">
-        <v>3.66</v>
+        <v>3.5667</v>
       </c>
       <c r="F50" t="n">
-        <v>3.0778</v>
+        <v>3.7056</v>
       </c>
       <c r="G50" t="n">
-        <v>3.4719</v>
+        <v>3.4663</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -1850,26 +1850,26 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>21002096</t>
+          <t>21001073</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.8588</v>
+        <v>3.2176</v>
       </c>
       <c r="C51" t="n">
-        <v>3.6176</v>
+        <v>3.5824</v>
       </c>
       <c r="D51" t="n">
-        <v>3.5545</v>
+        <v>3.4273</v>
       </c>
       <c r="E51" t="n">
-        <v>3.5667</v>
+        <v>3.66</v>
       </c>
       <c r="F51" t="n">
-        <v>3.7056</v>
+        <v>3.4111</v>
       </c>
       <c r="G51" t="n">
-        <v>3.4663</v>
+        <v>3.4528</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -1878,26 +1878,26 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>21001073</t>
+          <t>21002061</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3.2176</v>
+        <v>3.0588</v>
       </c>
       <c r="C52" t="n">
-        <v>3.5824</v>
+        <v>3.5529</v>
       </c>
       <c r="D52" t="n">
-        <v>3.4273</v>
+        <v>3.6091</v>
       </c>
       <c r="E52" t="n">
-        <v>3.66</v>
+        <v>3.32</v>
       </c>
       <c r="F52" t="n">
-        <v>3.4111</v>
+        <v>3.6316</v>
       </c>
       <c r="G52" t="n">
-        <v>3.4528</v>
+        <v>3.4511</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -1906,26 +1906,26 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>21002061</t>
+          <t>21000451</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>3.0588</v>
+        <v>3.1882</v>
       </c>
       <c r="C53" t="n">
-        <v>3.5529</v>
+        <v>3.1588</v>
       </c>
       <c r="D53" t="n">
-        <v>3.6091</v>
+        <v>3.4773</v>
       </c>
       <c r="E53" t="n">
-        <v>3.32</v>
+        <v>3.5133</v>
       </c>
       <c r="F53" t="n">
-        <v>3.6316</v>
+        <v>3.8889</v>
       </c>
       <c r="G53" t="n">
-        <v>3.4511</v>
+        <v>3.4506</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -1934,26 +1934,26 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21000451</t>
+          <t>21002118</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>3.1882</v>
+        <v>2.6</v>
       </c>
       <c r="C54" t="n">
-        <v>3.1588</v>
+        <v>3.6706</v>
       </c>
       <c r="D54" t="n">
-        <v>3.4773</v>
+        <v>3.6</v>
       </c>
       <c r="E54" t="n">
-        <v>3.5133</v>
+        <v>3.34</v>
       </c>
       <c r="F54" t="n">
-        <v>3.8889</v>
+        <v>3.9263</v>
       </c>
       <c r="G54" t="n">
-        <v>3.4506</v>
+        <v>3.45</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -1962,26 +1962,26 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>21002118</t>
+          <t>21001847</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.6</v>
+        <v>3.2588</v>
       </c>
       <c r="C55" t="n">
-        <v>3.6706</v>
+        <v>3.7882</v>
       </c>
       <c r="D55" t="n">
-        <v>3.6</v>
+        <v>3.3818</v>
       </c>
       <c r="E55" t="n">
-        <v>3.34</v>
+        <v>3.32</v>
       </c>
       <c r="F55" t="n">
-        <v>3.9263</v>
+        <v>3.4632</v>
       </c>
       <c r="G55" t="n">
-        <v>3.45</v>
+        <v>3.4422</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -1990,82 +1990,82 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21001847</t>
+          <t>21001652</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3.2588</v>
+        <v>3.3</v>
       </c>
       <c r="C56" t="n">
-        <v>3.7882</v>
+        <v>3.5</v>
       </c>
       <c r="D56" t="n">
-        <v>3.3818</v>
+        <v>3.5682</v>
       </c>
       <c r="E56" t="n">
-        <v>3.32</v>
+        <v>3.22</v>
       </c>
       <c r="F56" t="n">
-        <v>3.4632</v>
+        <v>3.5118</v>
       </c>
       <c r="G56" t="n">
-        <v>3.4422</v>
+        <v>3.433</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>21001652</t>
+          <t>21000298</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.3</v>
+        <v>3.3412</v>
       </c>
       <c r="C57" t="n">
-        <v>3.5</v>
+        <v>3.3765</v>
       </c>
       <c r="D57" t="n">
-        <v>3.5682</v>
+        <v>3.1</v>
       </c>
       <c r="E57" t="n">
-        <v>3.22</v>
+        <v>3.6467</v>
       </c>
       <c r="F57" t="n">
-        <v>3.5118</v>
+        <v>3.7789</v>
       </c>
       <c r="G57" t="n">
-        <v>3.433</v>
+        <v>3.4322</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>21000298</t>
+          <t>21001499</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3.3412</v>
+        <v>3.5588</v>
       </c>
       <c r="C58" t="n">
-        <v>3.3765</v>
+        <v>3.4471</v>
       </c>
       <c r="D58" t="n">
-        <v>3.1</v>
+        <v>3.6364</v>
       </c>
       <c r="E58" t="n">
-        <v>3.6467</v>
+        <v>3.16</v>
       </c>
       <c r="F58" t="n">
-        <v>3.7789</v>
+        <v>3.2632</v>
       </c>
       <c r="G58" t="n">
-        <v>3.4322</v>
+        <v>3.4278</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2074,26 +2074,26 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>21001499</t>
+          <t>21001065</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>3.5588</v>
+        <v>2.9647</v>
       </c>
       <c r="C59" t="n">
-        <v>3.4471</v>
+        <v>3.4706</v>
       </c>
       <c r="D59" t="n">
-        <v>3.6364</v>
+        <v>3.6409</v>
       </c>
       <c r="E59" t="n">
-        <v>3.16</v>
+        <v>3.3133</v>
       </c>
       <c r="F59" t="n">
-        <v>3.2632</v>
+        <v>3.6421</v>
       </c>
       <c r="G59" t="n">
-        <v>3.4278</v>
+        <v>3.4267</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2102,26 +2102,26 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>21001065</t>
+          <t>21000697</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>2.9647</v>
+        <v>3.1588</v>
       </c>
       <c r="C60" t="n">
-        <v>3.4706</v>
+        <v>3.5</v>
       </c>
       <c r="D60" t="n">
-        <v>3.6409</v>
+        <v>3.4727</v>
       </c>
       <c r="E60" t="n">
-        <v>3.3133</v>
+        <v>3.1667</v>
       </c>
       <c r="F60" t="n">
-        <v>3.6421</v>
+        <v>3.7211</v>
       </c>
       <c r="G60" t="n">
-        <v>3.4267</v>
+        <v>3.42</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2130,26 +2130,26 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>21000697</t>
+          <t>21000131</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.1588</v>
+        <v>2.9294</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5</v>
+        <v>3.5294</v>
       </c>
       <c r="D61" t="n">
-        <v>3.4727</v>
+        <v>3.3955</v>
       </c>
       <c r="E61" t="n">
-        <v>3.1667</v>
+        <v>3.66</v>
       </c>
       <c r="F61" t="n">
-        <v>3.7211</v>
+        <v>3.5444</v>
       </c>
       <c r="G61" t="n">
-        <v>3.42</v>
+        <v>3.4067</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2158,26 +2158,26 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>21001308</t>
+          <t>21000433</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>3.5588</v>
+        <v>3.1471</v>
       </c>
       <c r="C62" t="n">
-        <v>3.5353</v>
+        <v>3.0882</v>
       </c>
       <c r="D62" t="n">
-        <v>3.4591</v>
+        <v>3.6409</v>
       </c>
       <c r="E62" t="n">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="F62" t="n">
-        <v>3.3105</v>
+        <v>3.6158</v>
       </c>
       <c r="G62" t="n">
-        <v>3.4144</v>
+        <v>3.4011</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2186,54 +2186,54 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>21001871</t>
+          <t>21001529</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3.2118</v>
+        <v>3.0176</v>
       </c>
       <c r="C63" t="n">
-        <v>3.4118</v>
+        <v>3.6647</v>
       </c>
       <c r="D63" t="n">
-        <v>3.5227</v>
+        <v>3.5818</v>
       </c>
       <c r="E63" t="n">
-        <v>3.2333</v>
+        <v>3.5267</v>
       </c>
       <c r="F63" t="n">
-        <v>3.6158</v>
+        <v>3.1611</v>
       </c>
       <c r="G63" t="n">
-        <v>3.4144</v>
+        <v>3.3955</v>
       </c>
       <c r="H63" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>21000131</t>
+          <t>21000621</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>2.9294</v>
+        <v>3.4</v>
       </c>
       <c r="C64" t="n">
-        <v>3.5294</v>
+        <v>3.2235</v>
       </c>
       <c r="D64" t="n">
-        <v>3.3955</v>
+        <v>3.1773</v>
       </c>
       <c r="E64" t="n">
-        <v>3.66</v>
+        <v>3.24</v>
       </c>
       <c r="F64" t="n">
-        <v>3.5444</v>
+        <v>3.9167</v>
       </c>
       <c r="G64" t="n">
-        <v>3.4067</v>
+        <v>3.3888</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2242,26 +2242,26 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>21000433</t>
+          <t>21000964</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.1471</v>
+        <v>2.9353</v>
       </c>
       <c r="C65" t="n">
-        <v>3.0882</v>
+        <v>3.4882</v>
       </c>
       <c r="D65" t="n">
-        <v>3.6409</v>
+        <v>3.2273</v>
       </c>
       <c r="E65" t="n">
-        <v>3.42</v>
+        <v>3.5667</v>
       </c>
       <c r="F65" t="n">
-        <v>3.6158</v>
+        <v>3.76</v>
       </c>
       <c r="G65" t="n">
-        <v>3.4011</v>
+        <v>3.3857</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2270,26 +2270,26 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>21001529</t>
+          <t>21000141</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.0176</v>
+        <v>3.4529</v>
       </c>
       <c r="C66" t="n">
-        <v>3.6647</v>
+        <v>3.3529</v>
       </c>
       <c r="D66" t="n">
-        <v>3.5818</v>
+        <v>3.3409</v>
       </c>
       <c r="E66" t="n">
-        <v>3.5267</v>
+        <v>3.3733</v>
       </c>
       <c r="F66" t="n">
-        <v>3.1611</v>
+        <v>3.3714</v>
       </c>
       <c r="G66" t="n">
-        <v>3.3955</v>
+        <v>3.3761</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2298,26 +2298,26 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>21000964</t>
+          <t>21002152</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.9353</v>
+        <v>3.6412</v>
       </c>
       <c r="C67" t="n">
-        <v>3.4882</v>
+        <v>3.4118</v>
       </c>
       <c r="D67" t="n">
-        <v>3.2273</v>
+        <v>3.2591</v>
       </c>
       <c r="E67" t="n">
-        <v>3.5667</v>
+        <v>3.2</v>
       </c>
       <c r="F67" t="n">
-        <v>3.76</v>
+        <v>3.3667</v>
       </c>
       <c r="G67" t="n">
-        <v>3.3945</v>
+        <v>3.373</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2326,26 +2326,26 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>21001782</t>
+          <t>21000794</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>3.1882</v>
+        <v>3.4294</v>
       </c>
       <c r="C68" t="n">
-        <v>3.3706</v>
+        <v>3.3588</v>
       </c>
       <c r="D68" t="n">
-        <v>3.4636</v>
+        <v>3.4136</v>
       </c>
       <c r="E68" t="n">
-        <v>3.62</v>
+        <v>3.4333</v>
       </c>
       <c r="F68" t="n">
-        <v>3.3158</v>
+        <v>3.71</v>
       </c>
       <c r="G68" t="n">
-        <v>3.3889</v>
+        <v>3.3692</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2354,26 +2354,26 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21000621</t>
+          <t>21000573</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="C69" t="n">
-        <v>3.2235</v>
+        <v>3.2647</v>
       </c>
       <c r="D69" t="n">
-        <v>3.1773</v>
+        <v>3.3636</v>
       </c>
       <c r="E69" t="n">
-        <v>3.24</v>
+        <v>3.1467</v>
       </c>
       <c r="F69" t="n">
-        <v>3.9167</v>
+        <v>3.4263</v>
       </c>
       <c r="G69" t="n">
-        <v>3.3888</v>
+        <v>3.3667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2382,54 +2382,54 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>21000141</t>
+          <t>21000093</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>3.4529</v>
+        <v>2.8941</v>
       </c>
       <c r="C70" t="n">
-        <v>3.3529</v>
+        <v>3.4941</v>
       </c>
       <c r="D70" t="n">
-        <v>3.3409</v>
+        <v>3.4545</v>
       </c>
       <c r="E70" t="n">
-        <v>3.3733</v>
+        <v>3.44</v>
       </c>
       <c r="F70" t="n">
-        <v>3.3714</v>
+        <v>3.4789</v>
       </c>
       <c r="G70" t="n">
-        <v>3.3761</v>
+        <v>3.3589</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>21002152</t>
+          <t>21001782</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.6412</v>
+        <v>3.1882</v>
       </c>
       <c r="C71" t="n">
-        <v>3.4118</v>
+        <v>3.3706</v>
       </c>
       <c r="D71" t="n">
-        <v>3.2591</v>
+        <v>3.4636</v>
       </c>
       <c r="E71" t="n">
-        <v>3.2</v>
+        <v>3.62</v>
       </c>
       <c r="F71" t="n">
-        <v>3.3667</v>
+        <v>3.3158</v>
       </c>
       <c r="G71" t="n">
-        <v>3.373</v>
+        <v>3.3578</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2438,26 +2438,26 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>21000573</t>
+          <t>21001057</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3.6</v>
+        <v>3.2059</v>
       </c>
       <c r="C72" t="n">
-        <v>3.2647</v>
+        <v>3.2529</v>
       </c>
       <c r="D72" t="n">
-        <v>3.3636</v>
+        <v>3.4591</v>
       </c>
       <c r="E72" t="n">
-        <v>3.1467</v>
+        <v>3.3533</v>
       </c>
       <c r="F72" t="n">
-        <v>3.4263</v>
+        <v>3.5</v>
       </c>
       <c r="G72" t="n">
-        <v>3.3667</v>
+        <v>3.3544</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2466,26 +2466,26 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>21001057</t>
+          <t>21000344</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3.2059</v>
+        <v>2.9235</v>
       </c>
       <c r="C73" t="n">
-        <v>3.2529</v>
+        <v>3.7706</v>
       </c>
       <c r="D73" t="n">
-        <v>3.4591</v>
+        <v>3.1</v>
       </c>
       <c r="E73" t="n">
-        <v>3.3533</v>
+        <v>3.6467</v>
       </c>
       <c r="F73" t="n">
-        <v>3.5</v>
+        <v>3.4278</v>
       </c>
       <c r="G73" t="n">
-        <v>3.3633</v>
+        <v>3.3528</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2494,54 +2494,54 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>21000093</t>
+          <t>21001871</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2.8941</v>
+        <v>3.2118</v>
       </c>
       <c r="C74" t="n">
-        <v>3.4941</v>
+        <v>3.4118</v>
       </c>
       <c r="D74" t="n">
-        <v>3.4545</v>
+        <v>3.5227</v>
       </c>
       <c r="E74" t="n">
-        <v>3.44</v>
+        <v>3.2333</v>
       </c>
       <c r="F74" t="n">
-        <v>3.4789</v>
+        <v>3.6158</v>
       </c>
       <c r="G74" t="n">
-        <v>3.3589</v>
+        <v>3.3522</v>
       </c>
       <c r="H74" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>21000344</t>
+          <t>21000859</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>2.9235</v>
+        <v>3.0824</v>
       </c>
       <c r="C75" t="n">
-        <v>3.7706</v>
+        <v>3.4765</v>
       </c>
       <c r="D75" t="n">
-        <v>3.1</v>
+        <v>3.2727</v>
       </c>
       <c r="E75" t="n">
         <v>3.6467</v>
       </c>
       <c r="F75" t="n">
-        <v>3.4278</v>
+        <v>3.3368</v>
       </c>
       <c r="G75" t="n">
-        <v>3.3528</v>
+        <v>3.3511</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -2550,54 +2550,54 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>21000859</t>
+          <t>21000328</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.0824</v>
+        <v>3.2529</v>
       </c>
       <c r="C76" t="n">
-        <v>3.4765</v>
+        <v>3.5353</v>
       </c>
       <c r="D76" t="n">
-        <v>3.2727</v>
+        <v>3.3227</v>
       </c>
       <c r="E76" t="n">
-        <v>3.6467</v>
+        <v>3.46</v>
       </c>
       <c r="F76" t="n">
-        <v>3.3368</v>
+        <v>3.1889</v>
       </c>
       <c r="G76" t="n">
-        <v>3.3511</v>
+        <v>3.3461</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>21002215</t>
+          <t>21000611</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.2941</v>
+        <v>2.8</v>
       </c>
       <c r="C77" t="n">
-        <v>3.4765</v>
+        <v>3.5706</v>
       </c>
       <c r="D77" t="n">
-        <v>3.5818</v>
+        <v>3.35</v>
       </c>
       <c r="E77" t="n">
-        <v>3.4333</v>
+        <v>3.3933</v>
       </c>
       <c r="F77" t="n">
-        <v>3.7952</v>
+        <v>3.5842</v>
       </c>
       <c r="G77" t="n">
-        <v>3.3489</v>
+        <v>3.3444</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -2606,82 +2606,82 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>21000328</t>
+          <t>21001308</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>3.2529</v>
+        <v>3.5588</v>
       </c>
       <c r="C78" t="n">
         <v>3.5353</v>
       </c>
       <c r="D78" t="n">
-        <v>3.3227</v>
+        <v>3.4591</v>
       </c>
       <c r="E78" t="n">
-        <v>3.46</v>
+        <v>3.18</v>
       </c>
       <c r="F78" t="n">
-        <v>3.1889</v>
+        <v>3.3105</v>
       </c>
       <c r="G78" t="n">
-        <v>3.3461</v>
+        <v>3.3389</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>21000611</t>
+          <t>21000115</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2.8</v>
+        <v>3.4706</v>
       </c>
       <c r="C79" t="n">
-        <v>3.5706</v>
+        <v>3.5176</v>
       </c>
       <c r="D79" t="n">
-        <v>3.35</v>
+        <v>3.3818</v>
       </c>
       <c r="E79" t="n">
-        <v>3.3933</v>
+        <v>3.4133</v>
       </c>
       <c r="F79" t="n">
-        <v>3.5842</v>
+        <v>2.9</v>
       </c>
       <c r="G79" t="n">
-        <v>3.3444</v>
+        <v>3.3326</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>21000026</t>
+          <t>21002215</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2.8824</v>
+        <v>2.2941</v>
       </c>
       <c r="C80" t="n">
-        <v>3.3647</v>
+        <v>3.4765</v>
       </c>
       <c r="D80" t="n">
-        <v>3.7091</v>
+        <v>3.5818</v>
       </c>
       <c r="E80" t="n">
-        <v>3.4733</v>
+        <v>3.4333</v>
       </c>
       <c r="F80" t="n">
-        <v>3.1789</v>
+        <v>3.7952</v>
       </c>
       <c r="G80" t="n">
-        <v>3.3367</v>
+        <v>3.3207</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -2690,54 +2690,54 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>21000115</t>
+          <t>21001822</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>3.4706</v>
+        <v>2.8588</v>
       </c>
       <c r="C81" t="n">
-        <v>3.5176</v>
+        <v>3.0529</v>
       </c>
       <c r="D81" t="n">
-        <v>3.3818</v>
+        <v>3.2091</v>
       </c>
       <c r="E81" t="n">
-        <v>3.4133</v>
+        <v>3.66</v>
       </c>
       <c r="F81" t="n">
-        <v>2.9</v>
+        <v>3.8833</v>
       </c>
       <c r="G81" t="n">
-        <v>3.3326</v>
+        <v>3.3157</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>21001822</t>
+          <t>21001669</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>2.8588</v>
+        <v>3.3471</v>
       </c>
       <c r="C82" t="n">
-        <v>3.0529</v>
+        <v>3.4118</v>
       </c>
       <c r="D82" t="n">
-        <v>3.2091</v>
+        <v>3.3455</v>
       </c>
       <c r="E82" t="n">
-        <v>3.66</v>
+        <v>2.8867</v>
       </c>
       <c r="F82" t="n">
-        <v>3.8833</v>
+        <v>3.5111</v>
       </c>
       <c r="G82" t="n">
-        <v>3.3247</v>
+        <v>3.3146</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -2746,26 +2746,26 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>21001669</t>
+          <t>21001235</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>3.3471</v>
+        <v>2.7294</v>
       </c>
       <c r="C83" t="n">
-        <v>3.4118</v>
+        <v>3.3118</v>
       </c>
       <c r="D83" t="n">
-        <v>3.3455</v>
+        <v>3.3</v>
       </c>
       <c r="E83" t="n">
-        <v>2.8867</v>
+        <v>3.3667</v>
       </c>
       <c r="F83" t="n">
-        <v>3.5111</v>
+        <v>3.8158</v>
       </c>
       <c r="G83" t="n">
-        <v>3.3146</v>
+        <v>3.3144</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -2774,194 +2774,194 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21001235</t>
+          <t>21000069</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>2.7294</v>
+        <v>3.0471</v>
       </c>
       <c r="C84" t="n">
-        <v>3.3118</v>
+        <v>3.3353</v>
       </c>
       <c r="D84" t="n">
-        <v>3.3</v>
+        <v>3.3364</v>
       </c>
       <c r="E84" t="n">
-        <v>3.3667</v>
+        <v>3.42</v>
       </c>
       <c r="F84" t="n">
-        <v>3.8158</v>
+        <v>3.4211</v>
       </c>
       <c r="G84" t="n">
-        <v>3.3144</v>
+        <v>3.3133</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>21000069</t>
+          <t>21000247</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>3.0471</v>
+        <v>3.5</v>
       </c>
       <c r="C85" t="n">
-        <v>3.3353</v>
+        <v>3.4647</v>
       </c>
       <c r="D85" t="n">
-        <v>3.3364</v>
+        <v>3.3318</v>
       </c>
       <c r="E85" t="n">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="F85" t="n">
-        <v>3.4211</v>
+        <v>3.11</v>
       </c>
       <c r="G85" t="n">
-        <v>3.3133</v>
+        <v>3.3011</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>21000247</t>
+          <t>21000042</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>3.5</v>
+        <v>3.0941</v>
       </c>
       <c r="C86" t="n">
-        <v>3.4647</v>
+        <v>3.2647</v>
       </c>
       <c r="D86" t="n">
-        <v>3.3318</v>
+        <v>3.2727</v>
       </c>
       <c r="E86" t="n">
-        <v>3.1</v>
+        <v>3.3733</v>
       </c>
       <c r="F86" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="G86" t="n">
-        <v>3.3011</v>
+        <v>3.2956</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>21000042</t>
+          <t>21001881</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>3.0941</v>
+        <v>2.8353</v>
       </c>
       <c r="C87" t="n">
-        <v>3.2647</v>
+        <v>3.3</v>
       </c>
       <c r="D87" t="n">
-        <v>3.2727</v>
+        <v>3.4727</v>
       </c>
       <c r="E87" t="n">
-        <v>3.3733</v>
+        <v>3.4067</v>
       </c>
       <c r="F87" t="n">
-        <v>3.46</v>
+        <v>3.4111</v>
       </c>
       <c r="G87" t="n">
-        <v>3.2956</v>
+        <v>3.2944</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>21001881</t>
+          <t>21001901</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>2.8353</v>
+        <v>3.5471</v>
       </c>
       <c r="C88" t="n">
-        <v>3.3</v>
+        <v>3.5588</v>
       </c>
       <c r="D88" t="n">
-        <v>3.4727</v>
+        <v>3.5091</v>
       </c>
       <c r="E88" t="n">
-        <v>3.4067</v>
+        <v>3.1933</v>
       </c>
       <c r="F88" t="n">
-        <v>3.4111</v>
+        <v>2.4875</v>
       </c>
       <c r="G88" t="n">
-        <v>3.2944</v>
+        <v>3.2839</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>21001901</t>
+          <t>21001502</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>3.5471</v>
+        <v>3.0118</v>
       </c>
       <c r="C89" t="n">
-        <v>3.5588</v>
+        <v>3.3941</v>
       </c>
       <c r="D89" t="n">
-        <v>3.5091</v>
+        <v>3.3727</v>
       </c>
       <c r="E89" t="n">
         <v>3.1933</v>
       </c>
       <c r="F89" t="n">
-        <v>2.4875</v>
+        <v>3.4</v>
       </c>
       <c r="G89" t="n">
-        <v>3.2839</v>
+        <v>3.2831</v>
       </c>
       <c r="H89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>21001502</t>
+          <t>21001685</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.0118</v>
+        <v>2.7882</v>
       </c>
       <c r="C90" t="n">
-        <v>3.3941</v>
+        <v>3.3294</v>
       </c>
       <c r="D90" t="n">
-        <v>3.3727</v>
+        <v>3.3273</v>
       </c>
       <c r="E90" t="n">
-        <v>3.1933</v>
+        <v>3.3333</v>
       </c>
       <c r="F90" t="n">
-        <v>3.4</v>
+        <v>3.5778</v>
       </c>
       <c r="G90" t="n">
-        <v>3.2831</v>
+        <v>3.2764</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -2970,110 +2970,110 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>21001685</t>
+          <t>21000824</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.7882</v>
+        <v>3.2412</v>
       </c>
       <c r="C91" t="n">
-        <v>3.3294</v>
+        <v>3.1353</v>
       </c>
       <c r="D91" t="n">
-        <v>3.3273</v>
+        <v>3.3318</v>
       </c>
       <c r="E91" t="n">
-        <v>3.3333</v>
+        <v>3.16</v>
       </c>
       <c r="F91" t="n">
-        <v>3.5778</v>
+        <v>3.4316</v>
       </c>
       <c r="G91" t="n">
-        <v>3.2764</v>
+        <v>3.27</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>21000824</t>
+          <t>21000026</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>3.2412</v>
+        <v>2.8824</v>
       </c>
       <c r="C92" t="n">
-        <v>3.1353</v>
+        <v>3.3647</v>
       </c>
       <c r="D92" t="n">
-        <v>3.3318</v>
+        <v>3.7091</v>
       </c>
       <c r="E92" t="n">
-        <v>3.16</v>
+        <v>3.4733</v>
       </c>
       <c r="F92" t="n">
-        <v>3.4316</v>
+        <v>3.1789</v>
       </c>
       <c r="G92" t="n">
-        <v>3.27</v>
+        <v>3.2611</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>21000263</t>
+          <t>21000982</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2.8176</v>
+        <v>2.8235</v>
       </c>
       <c r="C93" t="n">
-        <v>3.4941</v>
+        <v>3.3941</v>
       </c>
       <c r="D93" t="n">
-        <v>3.3636</v>
+        <v>3.0909</v>
       </c>
       <c r="E93" t="n">
-        <v>3.1667</v>
+        <v>3.3133</v>
       </c>
       <c r="F93" t="n">
-        <v>3.4263</v>
+        <v>3.6842</v>
       </c>
       <c r="G93" t="n">
-        <v>3.2656</v>
+        <v>3.26</v>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>21000982</t>
+          <t>21000565</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>2.8235</v>
+        <v>2.9765</v>
       </c>
       <c r="C94" t="n">
-        <v>3.3941</v>
+        <v>3.3118</v>
       </c>
       <c r="D94" t="n">
-        <v>3.0909</v>
+        <v>3.3682</v>
       </c>
       <c r="E94" t="n">
-        <v>3.3133</v>
+        <v>2.9533</v>
       </c>
       <c r="F94" t="n">
-        <v>3.6842</v>
+        <v>3.56</v>
       </c>
       <c r="G94" t="n">
-        <v>3.26</v>
+        <v>3.2582</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3082,26 +3082,26 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>21000565</t>
+          <t>21002142</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2.9765</v>
+        <v>2.7353</v>
       </c>
       <c r="C95" t="n">
-        <v>3.3118</v>
+        <v>3.1588</v>
       </c>
       <c r="D95" t="n">
-        <v>3.3682</v>
+        <v>3.2545</v>
       </c>
       <c r="E95" t="n">
-        <v>2.9533</v>
+        <v>3.4667</v>
       </c>
       <c r="F95" t="n">
-        <v>3.56</v>
+        <v>3.5682</v>
       </c>
       <c r="G95" t="n">
-        <v>3.2582</v>
+        <v>3.2505</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3129,7 +3129,7 @@
         <v>3.4474</v>
       </c>
       <c r="G96" t="n">
-        <v>3.2544</v>
+        <v>3.2456</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3138,26 +3138,26 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>21002142</t>
+          <t>21001294</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>2.7353</v>
+        <v>3.1647</v>
       </c>
       <c r="C97" t="n">
-        <v>3.1588</v>
+        <v>3.2529</v>
       </c>
       <c r="D97" t="n">
-        <v>3.2545</v>
+        <v>3.0636</v>
       </c>
       <c r="E97" t="n">
-        <v>3.4667</v>
+        <v>3.3667</v>
       </c>
       <c r="F97" t="n">
-        <v>3.5682</v>
+        <v>3.4111</v>
       </c>
       <c r="G97" t="n">
-        <v>3.2505</v>
+        <v>3.2315</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3166,26 +3166,26 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>21001294</t>
+          <t>21001792</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>3.1647</v>
+        <v>3.2529</v>
       </c>
       <c r="C98" t="n">
-        <v>3.2529</v>
+        <v>3.1059</v>
       </c>
       <c r="D98" t="n">
-        <v>3.0636</v>
+        <v>3.2273</v>
       </c>
       <c r="E98" t="n">
-        <v>3.3667</v>
+        <v>3.4267</v>
       </c>
       <c r="F98" t="n">
-        <v>3.4111</v>
+        <v>3.1316</v>
       </c>
       <c r="G98" t="n">
-        <v>3.2404</v>
+        <v>3.2222</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3194,26 +3194,26 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20001088</t>
+          <t>21001162</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2.6765</v>
+        <v>3.3</v>
       </c>
       <c r="C99" t="n">
-        <v>3.2647</v>
+        <v>3.4</v>
       </c>
       <c r="D99" t="n">
-        <v>3.0909</v>
+        <v>3.0091</v>
       </c>
       <c r="E99" t="n">
-        <v>3.5267</v>
+        <v>3.5533</v>
       </c>
       <c r="F99" t="n">
-        <v>3.615</v>
+        <v>2.9444</v>
       </c>
       <c r="G99" t="n">
-        <v>3.233</v>
+        <v>3.218</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3222,26 +3222,26 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>21001792</t>
+          <t>21001421</t>
         </is>
       </c>
       <c r="B100" t="n">
+        <v>2.7706</v>
+      </c>
+      <c r="C100" t="n">
         <v>3.2529</v>
       </c>
-      <c r="C100" t="n">
-        <v>3.1059</v>
-      </c>
       <c r="D100" t="n">
-        <v>3.2273</v>
+        <v>3.4636</v>
       </c>
       <c r="E100" t="n">
-        <v>3.4267</v>
+        <v>2.86</v>
       </c>
       <c r="F100" t="n">
-        <v>3.1316</v>
+        <v>3.5889</v>
       </c>
       <c r="G100" t="n">
-        <v>3.2222</v>
+        <v>3.2146</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3250,26 +3250,26 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>21001162</t>
+          <t>21001342</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>3.3</v>
+        <v>2.9941</v>
       </c>
       <c r="C101" t="n">
-        <v>3.4</v>
+        <v>3.2941</v>
       </c>
       <c r="D101" t="n">
-        <v>3.0091</v>
+        <v>3.0682</v>
       </c>
       <c r="E101" t="n">
-        <v>3.5533</v>
+        <v>3.16</v>
       </c>
       <c r="F101" t="n">
-        <v>2.9444</v>
+        <v>3.5278</v>
       </c>
       <c r="G101" t="n">
-        <v>3.218</v>
+        <v>3.2056</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3278,26 +3278,26 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>21001421</t>
+          <t>21001936</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>2.7706</v>
+        <v>3.1471</v>
       </c>
       <c r="C102" t="n">
-        <v>3.2529</v>
+        <v>3.4353</v>
       </c>
       <c r="D102" t="n">
-        <v>3.4636</v>
+        <v>3.0318</v>
       </c>
       <c r="E102" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="F102" t="n">
-        <v>3.5889</v>
+        <v>3.228</v>
       </c>
       <c r="G102" t="n">
-        <v>3.2146</v>
+        <v>3.201</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3306,26 +3306,26 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>21001342</t>
+          <t>21000931</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>2.9941</v>
+        <v>3.1471</v>
       </c>
       <c r="C103" t="n">
-        <v>3.2941</v>
+        <v>3.6824</v>
       </c>
       <c r="D103" t="n">
-        <v>3.0682</v>
+        <v>3.2409</v>
       </c>
       <c r="E103" t="n">
-        <v>3.16</v>
+        <v>3.0067</v>
       </c>
       <c r="F103" t="n">
-        <v>3.5278</v>
+        <v>2.855</v>
       </c>
       <c r="G103" t="n">
-        <v>3.2056</v>
+        <v>3.1824</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3334,26 +3334,26 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>21001936</t>
+          <t>21001812</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3.1471</v>
+        <v>3.2176</v>
       </c>
       <c r="C104" t="n">
-        <v>3.4353</v>
+        <v>2.8647</v>
       </c>
       <c r="D104" t="n">
-        <v>3.0318</v>
+        <v>3.1182</v>
       </c>
       <c r="E104" t="n">
-        <v>3.2</v>
+        <v>3.58</v>
       </c>
       <c r="F104" t="n">
-        <v>3.228</v>
+        <v>3.1889</v>
       </c>
       <c r="G104" t="n">
-        <v>3.201</v>
+        <v>3.1809</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>3.7611</v>
       </c>
       <c r="G105" t="n">
-        <v>3.1876</v>
+        <v>3.1787</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -3390,54 +3390,54 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>21000931</t>
+          <t>21001456</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.1471</v>
+        <v>3.0882</v>
       </c>
       <c r="C106" t="n">
-        <v>3.6824</v>
+        <v>2.7588</v>
       </c>
       <c r="D106" t="n">
-        <v>3.2409</v>
+        <v>3.0909</v>
       </c>
       <c r="E106" t="n">
-        <v>3.0067</v>
+        <v>3.3867</v>
       </c>
       <c r="F106" t="n">
-        <v>2.855</v>
+        <v>3.519</v>
       </c>
       <c r="G106" t="n">
-        <v>3.1824</v>
+        <v>3.175</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>21001812</t>
+          <t>21001731</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>3.2176</v>
+        <v>2.7882</v>
       </c>
       <c r="C107" t="n">
-        <v>2.8647</v>
+        <v>3.0824</v>
       </c>
       <c r="D107" t="n">
-        <v>3.1182</v>
+        <v>3.3318</v>
       </c>
       <c r="E107" t="n">
-        <v>3.58</v>
+        <v>3.0467</v>
       </c>
       <c r="F107" t="n">
-        <v>3.1889</v>
+        <v>3.5111</v>
       </c>
       <c r="G107" t="n">
-        <v>3.1809</v>
+        <v>3.1685</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -3446,85 +3446,85 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>21001456</t>
+          <t>21002266</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.0882</v>
+        <v>2.6471</v>
       </c>
       <c r="C108" t="n">
-        <v>2.7588</v>
+        <v>3.2824</v>
       </c>
       <c r="D108" t="n">
-        <v>3.0909</v>
+        <v>2.9909</v>
       </c>
       <c r="E108" t="n">
-        <v>3.3867</v>
+        <v>3.46</v>
       </c>
       <c r="F108" t="n">
-        <v>3.519</v>
+        <v>3.4778</v>
       </c>
       <c r="G108" t="n">
-        <v>3.175</v>
+        <v>3.1584</v>
       </c>
       <c r="H108" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>21001731</t>
+          <t>21000263</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>2.7882</v>
+        <v>2.8176</v>
       </c>
       <c r="C109" t="n">
-        <v>3.0824</v>
+        <v>3.4941</v>
       </c>
       <c r="D109" t="n">
-        <v>3.3318</v>
+        <v>3.3636</v>
       </c>
       <c r="E109" t="n">
-        <v>3.0467</v>
+        <v>3.1667</v>
       </c>
       <c r="F109" t="n">
-        <v>3.5111</v>
+        <v>3.4263</v>
       </c>
       <c r="G109" t="n">
-        <v>3.1685</v>
+        <v>3.1433</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>21000506</t>
+          <t>21001693</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>2.8706</v>
+        <v>2.7647</v>
       </c>
       <c r="C110" t="n">
-        <v>3.2176</v>
+        <v>3.0118</v>
       </c>
       <c r="D110" t="n">
-        <v>3.0727</v>
+        <v>3.1545</v>
       </c>
       <c r="E110" t="n">
-        <v>2.9667</v>
+        <v>3.3267</v>
       </c>
       <c r="F110" t="n">
-        <v>3.6611</v>
+        <v>3.41</v>
       </c>
       <c r="G110" t="n">
-        <v>3.1629</v>
+        <v>3.1396</v>
       </c>
       <c r="H110" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3549,7 +3549,7 @@
         <v>3.6</v>
       </c>
       <c r="G111" t="n">
-        <v>3.1626</v>
+        <v>3.1297</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -3558,306 +3558,306 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>21001588</t>
+          <t>21001049</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3.0824</v>
+        <v>2.6941</v>
       </c>
       <c r="C112" t="n">
-        <v>2.9471</v>
+        <v>3.2059</v>
       </c>
       <c r="D112" t="n">
-        <v>3.2045</v>
+        <v>3.0273</v>
       </c>
       <c r="E112" t="n">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="F112" t="n">
-        <v>3.4389</v>
+        <v>3.5667</v>
       </c>
       <c r="G112" t="n">
-        <v>3.1584</v>
+        <v>3.1258</v>
       </c>
       <c r="H112" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>21002266</t>
+          <t>21000506</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>2.6471</v>
+        <v>2.8706</v>
       </c>
       <c r="C113" t="n">
-        <v>3.2824</v>
+        <v>3.2176</v>
       </c>
       <c r="D113" t="n">
-        <v>2.9909</v>
+        <v>3.0727</v>
       </c>
       <c r="E113" t="n">
-        <v>3.46</v>
+        <v>2.9667</v>
       </c>
       <c r="F113" t="n">
-        <v>3.4778</v>
+        <v>3.6611</v>
       </c>
       <c r="G113" t="n">
-        <v>3.1584</v>
+        <v>3.1247</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>21001693</t>
+          <t>21000204</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>2.7647</v>
+        <v>3.3647</v>
       </c>
       <c r="C114" t="n">
-        <v>3.0118</v>
+        <v>3.3706</v>
       </c>
       <c r="D114" t="n">
-        <v>3.1545</v>
+        <v>3.1636</v>
       </c>
       <c r="E114" t="n">
-        <v>3.3267</v>
+        <v>2.82</v>
       </c>
       <c r="F114" t="n">
-        <v>3.41</v>
+        <v>2.7643</v>
       </c>
       <c r="G114" t="n">
-        <v>3.1396</v>
+        <v>3.1188</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>21001049</t>
+          <t>21001774</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>2.6941</v>
+        <v>3.4235</v>
       </c>
       <c r="C115" t="n">
-        <v>3.2059</v>
+        <v>2.7529</v>
       </c>
       <c r="D115" t="n">
-        <v>3.0273</v>
+        <v>2.8136</v>
       </c>
       <c r="E115" t="n">
-        <v>3.14</v>
+        <v>2.8333</v>
       </c>
       <c r="F115" t="n">
-        <v>3.5667</v>
+        <v>3.6789</v>
       </c>
       <c r="G115" t="n">
-        <v>3.1258</v>
+        <v>3.1033</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>21000204</t>
+          <t>21001855</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3.3647</v>
+        <v>2.6176</v>
       </c>
       <c r="C116" t="n">
-        <v>3.3706</v>
+        <v>2.7941</v>
       </c>
       <c r="D116" t="n">
-        <v>3.1636</v>
+        <v>3.1545</v>
       </c>
       <c r="E116" t="n">
-        <v>2.82</v>
+        <v>3.4667</v>
       </c>
       <c r="F116" t="n">
-        <v>2.7643</v>
+        <v>3.5</v>
       </c>
       <c r="G116" t="n">
-        <v>3.1188</v>
+        <v>3.1011</v>
       </c>
       <c r="H116" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>21001855</t>
+          <t>21001715</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.6176</v>
+        <v>2.9059</v>
       </c>
       <c r="C117" t="n">
-        <v>2.7941</v>
+        <v>3.0471</v>
       </c>
       <c r="D117" t="n">
-        <v>3.1545</v>
+        <v>2.9591</v>
       </c>
       <c r="E117" t="n">
-        <v>3.4667</v>
+        <v>2.7467</v>
       </c>
       <c r="F117" t="n">
-        <v>3.5</v>
+        <v>3.7526</v>
       </c>
       <c r="G117" t="n">
-        <v>3.11</v>
+        <v>3.0978</v>
       </c>
       <c r="H117" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>21001774</t>
+          <t>21000948</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3.4235</v>
+        <v>2.4</v>
       </c>
       <c r="C118" t="n">
-        <v>2.7529</v>
+        <v>3.3294</v>
       </c>
       <c r="D118" t="n">
-        <v>2.8136</v>
+        <v>3.0864</v>
       </c>
       <c r="E118" t="n">
-        <v>2.8333</v>
+        <v>3.0667</v>
       </c>
       <c r="F118" t="n">
-        <v>3.6789</v>
+        <v>3.5158</v>
       </c>
       <c r="G118" t="n">
-        <v>3.1033</v>
+        <v>3.09</v>
       </c>
       <c r="H118" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>21002177</t>
+          <t>21001588</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>3</v>
+        <v>3.0824</v>
       </c>
       <c r="C119" t="n">
-        <v>3.1882</v>
+        <v>2.9471</v>
       </c>
       <c r="D119" t="n">
-        <v>3.0909</v>
+        <v>3.2045</v>
       </c>
       <c r="E119" t="n">
-        <v>2.7267</v>
+        <v>3.08</v>
       </c>
       <c r="F119" t="n">
-        <v>3.405</v>
+        <v>3.4389</v>
       </c>
       <c r="G119" t="n">
-        <v>3.1011</v>
+        <v>3.082</v>
       </c>
       <c r="H119" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>21001464</t>
+          <t>21002177</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>3.5059</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>3.4647</v>
+        <v>3.1882</v>
       </c>
       <c r="D120" t="n">
         <v>3.0909</v>
       </c>
       <c r="E120" t="n">
-        <v>2.48</v>
+        <v>2.7267</v>
       </c>
       <c r="F120" t="n">
-        <v>2.9679</v>
+        <v>3.405</v>
       </c>
       <c r="G120" t="n">
-        <v>3.099</v>
+        <v>3.0703</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>21001715</t>
+          <t>21000018</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.9059</v>
+        <v>2.8059</v>
       </c>
       <c r="C121" t="n">
-        <v>3.0471</v>
+        <v>2.8765</v>
       </c>
       <c r="D121" t="n">
-        <v>2.9591</v>
+        <v>2.8409</v>
       </c>
       <c r="E121" t="n">
-        <v>2.7467</v>
+        <v>3.1933</v>
       </c>
       <c r="F121" t="n">
-        <v>3.7526</v>
+        <v>3.6053</v>
       </c>
       <c r="G121" t="n">
-        <v>3.0978</v>
+        <v>3.0611</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>21000948</t>
+          <t>21001952</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2.4</v>
+        <v>3.0706</v>
       </c>
       <c r="C122" t="n">
-        <v>3.3294</v>
+        <v>3.2294</v>
       </c>
       <c r="D122" t="n">
-        <v>3.0864</v>
+        <v>2.6773</v>
       </c>
       <c r="E122" t="n">
-        <v>3.0667</v>
+        <v>2.52</v>
       </c>
       <c r="F122" t="n">
-        <v>3.5158</v>
+        <v>3.7333</v>
       </c>
       <c r="G122" t="n">
-        <v>3.09</v>
+        <v>3.0449</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>3.5105</v>
       </c>
       <c r="G123" t="n">
-        <v>3.0622</v>
+        <v>3.04</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -3894,29 +3894,29 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>21000018</t>
+          <t>21001464</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2.8059</v>
+        <v>3.5059</v>
       </c>
       <c r="C124" t="n">
-        <v>2.8765</v>
+        <v>3.4647</v>
       </c>
       <c r="D124" t="n">
-        <v>2.8409</v>
+        <v>3.0909</v>
       </c>
       <c r="E124" t="n">
-        <v>3.1933</v>
+        <v>2.48</v>
       </c>
       <c r="F124" t="n">
-        <v>3.6053</v>
+        <v>2.9679</v>
       </c>
       <c r="G124" t="n">
-        <v>3.0611</v>
+        <v>3.0303</v>
       </c>
       <c r="H124" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -3941,7 +3941,7 @@
         <v>3.3227</v>
       </c>
       <c r="G125" t="n">
-        <v>3.0602</v>
+        <v>3.0215</v>
       </c>
       <c r="H125" t="n">
         <v>4</v>
@@ -3950,26 +3950,26 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>21001952</t>
+          <t>21001202</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>3.0706</v>
+        <v>3.0235</v>
       </c>
       <c r="C126" t="n">
-        <v>3.2294</v>
+        <v>2.7824</v>
       </c>
       <c r="D126" t="n">
-        <v>2.6773</v>
+        <v>2.9545</v>
       </c>
       <c r="E126" t="n">
-        <v>2.52</v>
+        <v>2.9133</v>
       </c>
       <c r="F126" t="n">
-        <v>3.7333</v>
+        <v>3.4111</v>
       </c>
       <c r="G126" t="n">
-        <v>3.0449</v>
+        <v>3.0202</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>2.9647</v>
       </c>
       <c r="G127" t="n">
-        <v>3.039</v>
+        <v>3.02</v>
       </c>
       <c r="H127" t="n">
         <v>3</v>
@@ -4006,82 +4006,82 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>21000255</t>
+          <t>21001537</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2.7118</v>
+        <v>2.5235</v>
       </c>
       <c r="C128" t="n">
-        <v>3.0176</v>
+        <v>2.3412</v>
       </c>
       <c r="D128" t="n">
-        <v>3.2182</v>
+        <v>3.4</v>
       </c>
       <c r="E128" t="n">
-        <v>3.06</v>
+        <v>3.0067</v>
       </c>
       <c r="F128" t="n">
-        <v>3.0944</v>
+        <v>3.635</v>
       </c>
       <c r="G128" t="n">
-        <v>3.0315</v>
+        <v>3.0077</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>21001537</t>
+          <t>21001472</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.5235</v>
+        <v>3.0647</v>
       </c>
       <c r="C129" t="n">
-        <v>2.3412</v>
+        <v>2.7706</v>
       </c>
       <c r="D129" t="n">
-        <v>3.4</v>
+        <v>3.2455</v>
       </c>
       <c r="E129" t="n">
-        <v>3.0067</v>
+        <v>2.7733</v>
       </c>
       <c r="F129" t="n">
-        <v>3.635</v>
+        <v>3.0818</v>
       </c>
       <c r="G129" t="n">
-        <v>3.0253</v>
+        <v>2.9957</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>21001202</t>
+          <t>21000255</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>3.0235</v>
+        <v>2.7118</v>
       </c>
       <c r="C130" t="n">
-        <v>2.7824</v>
+        <v>3.0176</v>
       </c>
       <c r="D130" t="n">
-        <v>2.9545</v>
+        <v>3.2182</v>
       </c>
       <c r="E130" t="n">
-        <v>2.9133</v>
+        <v>3.06</v>
       </c>
       <c r="F130" t="n">
-        <v>3.4111</v>
+        <v>3.0944</v>
       </c>
       <c r="G130" t="n">
-        <v>3.0202</v>
+        <v>2.9933</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4090,26 +4090,26 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>21001472</t>
+          <t>21001482</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.0647</v>
+        <v>2.8882</v>
       </c>
       <c r="C131" t="n">
-        <v>2.7706</v>
+        <v>3.0824</v>
       </c>
       <c r="D131" t="n">
-        <v>3.2455</v>
+        <v>2.9864</v>
       </c>
       <c r="E131" t="n">
-        <v>2.7733</v>
+        <v>3.0533</v>
       </c>
       <c r="F131" t="n">
-        <v>3.0818</v>
+        <v>2.8947</v>
       </c>
       <c r="G131" t="n">
-        <v>3.0108</v>
+        <v>2.9778</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4118,26 +4118,26 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>21000468</t>
+          <t>21001111</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3.5294</v>
+        <v>2.3412</v>
       </c>
       <c r="C132" t="n">
-        <v>2.8471</v>
+        <v>2.7647</v>
       </c>
       <c r="D132" t="n">
-        <v>2.5636</v>
+        <v>2.6591</v>
       </c>
       <c r="E132" t="n">
-        <v>2.9</v>
+        <v>3.1333</v>
       </c>
       <c r="F132" t="n">
-        <v>3.1739</v>
+        <v>3.8409</v>
       </c>
       <c r="G132" t="n">
-        <v>2.9926</v>
+        <v>2.9763</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -4146,82 +4146,82 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>21001561</t>
+          <t>21000468</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.9235</v>
+        <v>3.5294</v>
       </c>
       <c r="C133" t="n">
-        <v>2.8294</v>
+        <v>2.8471</v>
       </c>
       <c r="D133" t="n">
-        <v>3.1818</v>
+        <v>2.5636</v>
       </c>
       <c r="E133" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="F133" t="n">
-        <v>3.315</v>
+        <v>3.1739</v>
       </c>
       <c r="G133" t="n">
-        <v>2.9846</v>
+        <v>2.9702</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>21000484</t>
+          <t>21001154</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.7765</v>
+        <v>2.7882</v>
       </c>
       <c r="C134" t="n">
-        <v>2.9529</v>
+        <v>2.9294</v>
       </c>
       <c r="D134" t="n">
-        <v>3.1318</v>
+        <v>2.9682</v>
       </c>
       <c r="E134" t="n">
-        <v>2.7933</v>
+        <v>3</v>
       </c>
       <c r="F134" t="n">
-        <v>3.1526</v>
+        <v>3.1278</v>
       </c>
       <c r="G134" t="n">
-        <v>2.9789</v>
+        <v>2.964</v>
       </c>
       <c r="H134" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>21001482</t>
+          <t>20001088</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>2.8882</v>
+        <v>2.6765</v>
       </c>
       <c r="C135" t="n">
-        <v>3.0824</v>
+        <v>3.2647</v>
       </c>
       <c r="D135" t="n">
-        <v>2.9864</v>
+        <v>3.0909</v>
       </c>
       <c r="E135" t="n">
-        <v>3.0533</v>
+        <v>3.5267</v>
       </c>
       <c r="F135" t="n">
-        <v>2.8947</v>
+        <v>3.615</v>
       </c>
       <c r="G135" t="n">
-        <v>2.9778</v>
+        <v>2.9637</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -4230,169 +4230,169 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>21001111</t>
+          <t>21001561</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>2.3412</v>
+        <v>2.9235</v>
       </c>
       <c r="C136" t="n">
-        <v>2.7647</v>
+        <v>2.8294</v>
       </c>
       <c r="D136" t="n">
-        <v>2.6591</v>
+        <v>3.1818</v>
       </c>
       <c r="E136" t="n">
-        <v>3.1333</v>
+        <v>2.5</v>
       </c>
       <c r="F136" t="n">
-        <v>3.8409</v>
+        <v>3.315</v>
       </c>
       <c r="G136" t="n">
-        <v>2.9763</v>
+        <v>2.9626</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>21001512</t>
+          <t>21000484</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3.3</v>
+        <v>2.7765</v>
       </c>
       <c r="C137" t="n">
-        <v>2.9647</v>
+        <v>2.9529</v>
       </c>
       <c r="D137" t="n">
-        <v>2.9455</v>
+        <v>3.1318</v>
       </c>
       <c r="E137" t="n">
-        <v>2.5067</v>
+        <v>2.7933</v>
       </c>
       <c r="F137" t="n">
-        <v>3.0842</v>
+        <v>3.1526</v>
       </c>
       <c r="G137" t="n">
-        <v>2.9722</v>
+        <v>2.9544</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>21001154</t>
+          <t>21001512</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.7882</v>
+        <v>3.3</v>
       </c>
       <c r="C138" t="n">
-        <v>2.9294</v>
+        <v>2.9647</v>
       </c>
       <c r="D138" t="n">
-        <v>2.9682</v>
+        <v>2.9455</v>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>2.5067</v>
       </c>
       <c r="F138" t="n">
-        <v>3.1278</v>
+        <v>3.0842</v>
       </c>
       <c r="G138" t="n">
-        <v>2.964</v>
+        <v>2.95</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>21000417</t>
+          <t>21001448</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2.7176</v>
+        <v>3.2176</v>
       </c>
       <c r="C139" t="n">
-        <v>3.0647</v>
+        <v>3.1765</v>
       </c>
       <c r="D139" t="n">
-        <v>3.0227</v>
+        <v>2.7136</v>
       </c>
       <c r="E139" t="n">
-        <v>2.8667</v>
+        <v>2.9333</v>
       </c>
       <c r="F139" t="n">
-        <v>3.0889</v>
+        <v>2.7684</v>
       </c>
       <c r="G139" t="n">
-        <v>2.9596</v>
+        <v>2.9444</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>21001324</t>
+          <t>21001219</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.8882</v>
+        <v>2.6588</v>
       </c>
       <c r="C140" t="n">
-        <v>3.1588</v>
+        <v>3.3235</v>
       </c>
       <c r="D140" t="n">
-        <v>2.6727</v>
+        <v>3.1409</v>
       </c>
       <c r="E140" t="n">
-        <v>2.7933</v>
+        <v>3.1733</v>
       </c>
       <c r="F140" t="n">
-        <v>3.285</v>
+        <v>2.4211</v>
       </c>
       <c r="G140" t="n">
-        <v>2.9582</v>
+        <v>2.9378</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>21001863</t>
+          <t>21000417</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.8412</v>
+        <v>2.7176</v>
       </c>
       <c r="C141" t="n">
-        <v>3.2588</v>
+        <v>3.0647</v>
       </c>
       <c r="D141" t="n">
-        <v>3.1</v>
+        <v>3.0227</v>
       </c>
       <c r="E141" t="n">
-        <v>2.4533</v>
+        <v>2.8667</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>3.0889</v>
       </c>
       <c r="G141" t="n">
-        <v>2.9517</v>
+        <v>2.9371</v>
       </c>
       <c r="H141" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -4417,7 +4417,7 @@
         <v>3.2222</v>
       </c>
       <c r="G142" t="n">
-        <v>2.9506</v>
+        <v>2.9371</v>
       </c>
       <c r="H142" t="n">
         <v>18</v>
@@ -4426,29 +4426,29 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>21001448</t>
+          <t>21000751</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>3.2176</v>
+        <v>2.7353</v>
       </c>
       <c r="C143" t="n">
-        <v>3.1765</v>
+        <v>3</v>
       </c>
       <c r="D143" t="n">
-        <v>2.7136</v>
+        <v>3.1545</v>
       </c>
       <c r="E143" t="n">
-        <v>2.9333</v>
+        <v>2.6133</v>
       </c>
       <c r="F143" t="n">
-        <v>2.7684</v>
+        <v>3.05</v>
       </c>
       <c r="G143" t="n">
-        <v>2.9444</v>
+        <v>2.9326</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -4473,7 +4473,7 @@
         <v>3.3474</v>
       </c>
       <c r="G144" t="n">
-        <v>2.9411</v>
+        <v>2.9256</v>
       </c>
       <c r="H144" t="n">
         <v>2</v>
@@ -4482,194 +4482,194 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>21001219</t>
+          <t>21001032</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>2.6588</v>
+        <v>2.8588</v>
       </c>
       <c r="C145" t="n">
-        <v>3.3235</v>
+        <v>3.2529</v>
       </c>
       <c r="D145" t="n">
-        <v>3.1409</v>
+        <v>2.7818</v>
       </c>
       <c r="E145" t="n">
-        <v>3.1733</v>
+        <v>2.9067</v>
       </c>
       <c r="F145" t="n">
-        <v>2.4211</v>
+        <v>2.8684</v>
       </c>
       <c r="G145" t="n">
-        <v>2.9378</v>
+        <v>2.9244</v>
       </c>
       <c r="H145" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>21000751</t>
+          <t>21001944</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>2.7353</v>
+        <v>2.4588</v>
       </c>
       <c r="C146" t="n">
-        <v>3</v>
+        <v>2.8412</v>
       </c>
       <c r="D146" t="n">
-        <v>3.1545</v>
+        <v>3.0273</v>
       </c>
       <c r="E146" t="n">
-        <v>2.6133</v>
+        <v>3.08</v>
       </c>
       <c r="F146" t="n">
-        <v>3.05</v>
+        <v>3.125</v>
       </c>
       <c r="G146" t="n">
-        <v>2.9326</v>
+        <v>2.9165</v>
       </c>
       <c r="H146" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>21001032</t>
+          <t>21001863</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>2.8588</v>
+        <v>2.8412</v>
       </c>
       <c r="C147" t="n">
-        <v>3.2529</v>
+        <v>3.2588</v>
       </c>
       <c r="D147" t="n">
-        <v>2.7818</v>
+        <v>3.1</v>
       </c>
       <c r="E147" t="n">
-        <v>2.9067</v>
+        <v>2.4533</v>
       </c>
       <c r="F147" t="n">
-        <v>2.8684</v>
+        <v>3</v>
       </c>
       <c r="G147" t="n">
-        <v>2.9244</v>
+        <v>2.9112</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>21001944</t>
+          <t>21001677</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>2.4588</v>
+        <v>2.5412</v>
       </c>
       <c r="C148" t="n">
-        <v>2.8412</v>
+        <v>2.9824</v>
       </c>
       <c r="D148" t="n">
-        <v>3.0273</v>
+        <v>2.8364</v>
       </c>
       <c r="E148" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="F148" t="n">
-        <v>3.125</v>
+        <v>3.005</v>
       </c>
       <c r="G148" t="n">
-        <v>2.9165</v>
+        <v>2.9088</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>21000816</t>
+          <t>21001324</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>2.8118</v>
+        <v>2.8882</v>
       </c>
       <c r="C149" t="n">
-        <v>3.0118</v>
+        <v>3.1588</v>
       </c>
       <c r="D149" t="n">
-        <v>2.9273</v>
+        <v>2.6727</v>
       </c>
       <c r="E149" t="n">
-        <v>2.5733</v>
+        <v>2.7933</v>
       </c>
       <c r="F149" t="n">
-        <v>3.1333</v>
+        <v>3.285</v>
       </c>
       <c r="G149" t="n">
-        <v>2.9109</v>
+        <v>2.8835</v>
       </c>
       <c r="H149" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>21001677</t>
+          <t>21000816</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2.5412</v>
+        <v>2.8118</v>
       </c>
       <c r="C150" t="n">
-        <v>2.9824</v>
+        <v>3.0118</v>
       </c>
       <c r="D150" t="n">
-        <v>2.8364</v>
+        <v>2.9273</v>
       </c>
       <c r="E150" t="n">
-        <v>3.22</v>
+        <v>2.5733</v>
       </c>
       <c r="F150" t="n">
-        <v>3.005</v>
+        <v>3.1333</v>
       </c>
       <c r="G150" t="n">
-        <v>2.9088</v>
+        <v>2.8804</v>
       </c>
       <c r="H150" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>21000311</t>
+          <t>21001121</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.2294</v>
+        <v>2.8471</v>
       </c>
       <c r="C151" t="n">
-        <v>2.8647</v>
+        <v>2.7294</v>
       </c>
       <c r="D151" t="n">
-        <v>2.8682</v>
+        <v>2.7591</v>
       </c>
       <c r="E151" t="n">
-        <v>2.9133</v>
+        <v>2.42</v>
       </c>
       <c r="F151" t="n">
-        <v>3.5</v>
+        <v>3.495</v>
       </c>
       <c r="G151" t="n">
-        <v>2.8945</v>
+        <v>2.8758</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -4678,26 +4678,26 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>21001121</t>
+          <t>21000311</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>2.8471</v>
+        <v>2.2294</v>
       </c>
       <c r="C152" t="n">
-        <v>2.7294</v>
+        <v>2.8647</v>
       </c>
       <c r="D152" t="n">
-        <v>2.7591</v>
+        <v>2.8682</v>
       </c>
       <c r="E152" t="n">
-        <v>2.42</v>
+        <v>2.9133</v>
       </c>
       <c r="F152" t="n">
-        <v>3.495</v>
+        <v>3.5</v>
       </c>
       <c r="G152" t="n">
-        <v>2.8758</v>
+        <v>2.8725</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -4753,7 +4753,7 @@
         <v>3.4053</v>
       </c>
       <c r="G154" t="n">
-        <v>2.85</v>
+        <v>2.8411</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>2.94</v>
       </c>
       <c r="G155" t="n">
-        <v>2.8473</v>
+        <v>2.8385</v>
       </c>
       <c r="H155" t="n">
         <v>7</v>
@@ -4846,57 +4846,57 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>21000182</t>
+          <t>21000301</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>2.3412</v>
+        <v>3.0824</v>
       </c>
       <c r="C158" t="n">
-        <v>2.7882</v>
+        <v>2.7706</v>
       </c>
       <c r="D158" t="n">
-        <v>2.9864</v>
+        <v>2.9909</v>
       </c>
       <c r="E158" t="n">
-        <v>2.86</v>
+        <v>1.86</v>
       </c>
       <c r="F158" t="n">
-        <v>3.0611</v>
+        <v>3.1158</v>
       </c>
       <c r="G158" t="n">
-        <v>2.8191</v>
+        <v>2.8044</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>21000727</t>
+          <t>21000182</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>2.2118</v>
+        <v>2.3412</v>
       </c>
       <c r="C159" t="n">
-        <v>2.8294</v>
+        <v>2.7882</v>
       </c>
       <c r="D159" t="n">
-        <v>3.2409</v>
+        <v>2.9864</v>
       </c>
       <c r="E159" t="n">
-        <v>2.7933</v>
+        <v>2.86</v>
       </c>
       <c r="F159" t="n">
-        <v>2.8833</v>
+        <v>3.0611</v>
       </c>
       <c r="G159" t="n">
-        <v>2.818</v>
+        <v>2.8011</v>
       </c>
       <c r="H159" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -4921,7 +4921,7 @@
         <v>3.145</v>
       </c>
       <c r="G160" t="n">
-        <v>2.8099</v>
+        <v>2.7945</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -4930,138 +4930,138 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>21001146</t>
+          <t>21001911</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>2.6353</v>
+        <v>2.0882</v>
       </c>
       <c r="C161" t="n">
-        <v>2.5235</v>
+        <v>2.6529</v>
       </c>
       <c r="D161" t="n">
-        <v>3.1545</v>
+        <v>3.1045</v>
       </c>
       <c r="E161" t="n">
-        <v>3.0267</v>
+        <v>2.5</v>
       </c>
       <c r="F161" t="n">
-        <v>2.655</v>
+        <v>3.3889</v>
       </c>
       <c r="G161" t="n">
-        <v>2.8088</v>
+        <v>2.7798</v>
       </c>
       <c r="H161" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>21000301</t>
+          <t>21000689</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3.0824</v>
+        <v>2.4706</v>
       </c>
       <c r="C162" t="n">
-        <v>2.7706</v>
+        <v>2.4588</v>
       </c>
       <c r="D162" t="n">
-        <v>2.9909</v>
+        <v>2.8136</v>
       </c>
       <c r="E162" t="n">
-        <v>1.86</v>
+        <v>2.9</v>
       </c>
       <c r="F162" t="n">
-        <v>3.1158</v>
+        <v>3.1944</v>
       </c>
       <c r="G162" t="n">
-        <v>2.8044</v>
+        <v>2.7562</v>
       </c>
       <c r="H162" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>21002037</t>
+          <t>21001383</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>2.0588</v>
+        <v>2.6471</v>
       </c>
       <c r="C163" t="n">
-        <v>2.7824</v>
+        <v>2.4176</v>
       </c>
       <c r="D163" t="n">
-        <v>2.8091</v>
+        <v>2.3409</v>
       </c>
       <c r="E163" t="n">
-        <v>2.7467</v>
+        <v>3.24</v>
       </c>
       <c r="F163" t="n">
-        <v>3.5105</v>
+        <v>3.195</v>
       </c>
       <c r="G163" t="n">
-        <v>2.8</v>
+        <v>2.7484</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>21001911</t>
+          <t>21000727</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.0882</v>
+        <v>2.2118</v>
       </c>
       <c r="C164" t="n">
-        <v>2.6529</v>
+        <v>2.8294</v>
       </c>
       <c r="D164" t="n">
-        <v>3.1045</v>
+        <v>3.2409</v>
       </c>
       <c r="E164" t="n">
-        <v>2.5</v>
+        <v>2.7933</v>
       </c>
       <c r="F164" t="n">
-        <v>3.3889</v>
+        <v>2.8833</v>
       </c>
       <c r="G164" t="n">
-        <v>2.7798</v>
+        <v>2.7416</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>21000689</t>
+          <t>21002037</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>2.4706</v>
+        <v>2.0588</v>
       </c>
       <c r="C165" t="n">
-        <v>2.4588</v>
+        <v>2.7824</v>
       </c>
       <c r="D165" t="n">
-        <v>2.8136</v>
+        <v>2.8091</v>
       </c>
       <c r="E165" t="n">
-        <v>2.9</v>
+        <v>2.7467</v>
       </c>
       <c r="F165" t="n">
-        <v>3.1944</v>
+        <v>3.5105</v>
       </c>
       <c r="G165" t="n">
-        <v>2.7719</v>
+        <v>2.7244</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -5070,197 +5070,197 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>21000891</t>
+          <t>21001804</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>3.2647</v>
+        <v>2.4235</v>
       </c>
       <c r="C166" t="n">
-        <v>2.4412</v>
+        <v>2.7941</v>
       </c>
       <c r="D166" t="n">
-        <v>2.3045</v>
+        <v>3.1</v>
       </c>
       <c r="E166" t="n">
-        <v>2.2267</v>
+        <v>3.0267</v>
       </c>
       <c r="F166" t="n">
-        <v>3.5895</v>
+        <v>2.4556</v>
       </c>
       <c r="G166" t="n">
-        <v>2.77</v>
+        <v>2.7202</v>
       </c>
       <c r="H166" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>21001804</t>
+          <t>21000158</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2.4235</v>
+        <v>2.9176</v>
       </c>
       <c r="C167" t="n">
-        <v>2.7941</v>
+        <v>3.2647</v>
       </c>
       <c r="D167" t="n">
-        <v>3.1</v>
+        <v>2.8909</v>
       </c>
       <c r="E167" t="n">
-        <v>3.0267</v>
+        <v>2.26</v>
       </c>
       <c r="F167" t="n">
-        <v>2.4556</v>
+        <v>2.2875</v>
       </c>
       <c r="G167" t="n">
-        <v>2.7697</v>
+        <v>2.7105</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>21001383</t>
+          <t>21000492</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2.6471</v>
+        <v>2.4765</v>
       </c>
       <c r="C168" t="n">
-        <v>2.4176</v>
+        <v>2.7353</v>
       </c>
       <c r="D168" t="n">
-        <v>2.3409</v>
+        <v>3.0045</v>
       </c>
       <c r="E168" t="n">
-        <v>3.24</v>
+        <v>2.7733</v>
       </c>
       <c r="F168" t="n">
-        <v>3.195</v>
+        <v>2.5316</v>
       </c>
       <c r="G168" t="n">
-        <v>2.7484</v>
+        <v>2.7022</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>21001413</t>
+          <t>21000549</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.5765</v>
+        <v>2.3471</v>
       </c>
       <c r="C169" t="n">
-        <v>2.3588</v>
+        <v>2.5471</v>
       </c>
       <c r="D169" t="n">
-        <v>2.7</v>
+        <v>2.8273</v>
       </c>
       <c r="E169" t="n">
-        <v>2.7667</v>
+        <v>2.6933</v>
       </c>
       <c r="F169" t="n">
-        <v>3.3</v>
+        <v>3.03</v>
       </c>
       <c r="G169" t="n">
-        <v>2.7438</v>
+        <v>2.6989</v>
       </c>
       <c r="H169" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>21000492</t>
+          <t>21001413</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>2.4765</v>
+        <v>2.5765</v>
       </c>
       <c r="C170" t="n">
-        <v>2.7353</v>
+        <v>2.3588</v>
       </c>
       <c r="D170" t="n">
-        <v>3.0045</v>
+        <v>2.7</v>
       </c>
       <c r="E170" t="n">
-        <v>2.7733</v>
+        <v>2.7667</v>
       </c>
       <c r="F170" t="n">
-        <v>2.5316</v>
+        <v>3.3</v>
       </c>
       <c r="G170" t="n">
-        <v>2.7156</v>
+        <v>2.6719</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>21000158</t>
+          <t>21001146</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>2.9176</v>
+        <v>2.6353</v>
       </c>
       <c r="C171" t="n">
-        <v>3.2647</v>
+        <v>2.5235</v>
       </c>
       <c r="D171" t="n">
-        <v>2.8909</v>
+        <v>3.1545</v>
       </c>
       <c r="E171" t="n">
-        <v>2.26</v>
+        <v>3.0267</v>
       </c>
       <c r="F171" t="n">
-        <v>2.2875</v>
+        <v>2.655</v>
       </c>
       <c r="G171" t="n">
-        <v>2.7105</v>
+        <v>2.6703</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>21000549</t>
+          <t>21002134</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>2.3471</v>
+        <v>2.7765</v>
       </c>
       <c r="C172" t="n">
-        <v>2.5471</v>
+        <v>3.1353</v>
       </c>
       <c r="D172" t="n">
-        <v>2.8273</v>
+        <v>2.7818</v>
       </c>
       <c r="E172" t="n">
-        <v>2.6933</v>
+        <v>2.02</v>
       </c>
       <c r="F172" t="n">
-        <v>3.03</v>
+        <v>2.6056</v>
       </c>
       <c r="G172" t="n">
-        <v>2.7077</v>
+        <v>2.6685</v>
       </c>
       <c r="H172" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -5285,7 +5285,7 @@
         <v>2.88</v>
       </c>
       <c r="G173" t="n">
-        <v>2.6879</v>
+        <v>2.6637</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -5294,838 +5294,838 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>21002134</t>
+          <t>21000891</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>2.7765</v>
+        <v>3.2647</v>
       </c>
       <c r="C174" t="n">
-        <v>3.1353</v>
+        <v>2.4412</v>
       </c>
       <c r="D174" t="n">
-        <v>2.7818</v>
+        <v>2.3045</v>
       </c>
       <c r="E174" t="n">
-        <v>2.02</v>
+        <v>2.2267</v>
       </c>
       <c r="F174" t="n">
-        <v>2.6056</v>
+        <v>3.5895</v>
       </c>
       <c r="G174" t="n">
-        <v>2.6843</v>
+        <v>2.65</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>20000561</t>
+          <t>21000052</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>2.5588</v>
+        <v>2.1882</v>
       </c>
       <c r="C175" t="n">
-        <v>2.6118</v>
+        <v>2.7765</v>
       </c>
       <c r="D175" t="n">
-        <v>2.9955</v>
+        <v>2.9455</v>
       </c>
       <c r="E175" t="n">
-        <v>2.88</v>
+        <v>2.8267</v>
       </c>
       <c r="F175" t="n">
-        <v>2.22</v>
+        <v>2.3381</v>
       </c>
       <c r="G175" t="n">
-        <v>2.6527</v>
+        <v>2.6163</v>
       </c>
       <c r="H175" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>21000222</t>
+          <t>21001545</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>2.5706</v>
+        <v>2.3882</v>
       </c>
       <c r="C176" t="n">
-        <v>2.2588</v>
+        <v>2.7059</v>
       </c>
       <c r="D176" t="n">
-        <v>2.7364</v>
+        <v>2.7818</v>
       </c>
       <c r="E176" t="n">
-        <v>2.36</v>
+        <v>2.86</v>
       </c>
       <c r="F176" t="n">
-        <v>3.1556</v>
+        <v>2.325</v>
       </c>
       <c r="G176" t="n">
-        <v>2.6348</v>
+        <v>2.6066</v>
       </c>
       <c r="H176" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>21000052</t>
+          <t>21000761</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2.1882</v>
+        <v>2.7529</v>
       </c>
       <c r="C177" t="n">
-        <v>2.7765</v>
+        <v>2.5235</v>
       </c>
       <c r="D177" t="n">
-        <v>2.9455</v>
+        <v>2.6455</v>
       </c>
       <c r="E177" t="n">
-        <v>2.8267</v>
+        <v>2.1467</v>
       </c>
       <c r="F177" t="n">
-        <v>2.3381</v>
+        <v>2.875</v>
       </c>
       <c r="G177" t="n">
-        <v>2.6163</v>
+        <v>2.6022</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>21000476</t>
+          <t>21000222</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1.9941</v>
+        <v>2.5706</v>
       </c>
       <c r="C178" t="n">
-        <v>2.2294</v>
+        <v>2.2588</v>
       </c>
       <c r="D178" t="n">
-        <v>2.8227</v>
+        <v>2.7364</v>
       </c>
       <c r="E178" t="n">
-        <v>2.8467</v>
+        <v>2.36</v>
       </c>
       <c r="F178" t="n">
-        <v>3.1056</v>
+        <v>3.1556</v>
       </c>
       <c r="G178" t="n">
-        <v>2.6124</v>
+        <v>2.5719</v>
       </c>
       <c r="H178" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>21000761</t>
+          <t>21001634</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>2.7529</v>
+        <v>2.9059</v>
       </c>
       <c r="C179" t="n">
-        <v>2.5235</v>
+        <v>2.4824</v>
       </c>
       <c r="D179" t="n">
-        <v>2.6455</v>
+        <v>2.4455</v>
       </c>
       <c r="E179" t="n">
-        <v>2.1467</v>
+        <v>2.5</v>
       </c>
       <c r="F179" t="n">
-        <v>2.875</v>
+        <v>2.6</v>
       </c>
       <c r="G179" t="n">
-        <v>2.611</v>
+        <v>2.5637</v>
       </c>
       <c r="H179" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>21001545</t>
+          <t>21001618</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2.3882</v>
+        <v>2.5059</v>
       </c>
       <c r="C180" t="n">
-        <v>2.7059</v>
+        <v>2.5059</v>
       </c>
       <c r="D180" t="n">
-        <v>2.7818</v>
+        <v>2.5409</v>
       </c>
       <c r="E180" t="n">
-        <v>2.86</v>
+        <v>2.3</v>
       </c>
       <c r="F180" t="n">
-        <v>2.325</v>
+        <v>2.87</v>
       </c>
       <c r="G180" t="n">
-        <v>2.6066</v>
+        <v>2.5604</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>21001405</t>
+          <t>21000514</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2.6118</v>
+        <v>2.6882</v>
       </c>
       <c r="C181" t="n">
-        <v>2.2882</v>
+        <v>2.7235</v>
       </c>
       <c r="D181" t="n">
-        <v>2.8227</v>
+        <v>3.0045</v>
       </c>
       <c r="E181" t="n">
-        <v>2.2733</v>
+        <v>2.42</v>
       </c>
       <c r="F181" t="n">
-        <v>2.8667</v>
+        <v>1.9211</v>
       </c>
       <c r="G181" t="n">
-        <v>2.5966</v>
+        <v>2.55</v>
       </c>
       <c r="H181" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>21001634</t>
+          <t>21000476</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2.9059</v>
+        <v>1.9941</v>
       </c>
       <c r="C182" t="n">
-        <v>2.4824</v>
+        <v>2.2294</v>
       </c>
       <c r="D182" t="n">
-        <v>2.4455</v>
+        <v>2.8227</v>
       </c>
       <c r="E182" t="n">
-        <v>2.5</v>
+        <v>2.8467</v>
       </c>
       <c r="F182" t="n">
-        <v>2.6</v>
+        <v>3.1056</v>
       </c>
       <c r="G182" t="n">
-        <v>2.5813</v>
+        <v>2.5404</v>
       </c>
       <c r="H182" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>21000591</t>
+          <t>21001081</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>2.9118</v>
+        <v>2.3235</v>
       </c>
       <c r="C183" t="n">
-        <v>2.2529</v>
+        <v>2.2118</v>
       </c>
       <c r="D183" t="n">
-        <v>2.3273</v>
+        <v>2.7136</v>
       </c>
       <c r="E183" t="n">
-        <v>2.5933</v>
+        <v>2.4</v>
       </c>
       <c r="F183" t="n">
-        <v>2.8182</v>
+        <v>2.845</v>
       </c>
       <c r="G183" t="n">
-        <v>2.5796</v>
+        <v>2.5242</v>
       </c>
       <c r="H183" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>21000514</t>
+          <t>21001431</t>
         </is>
       </c>
       <c r="B184" t="n">
+        <v>2.7882</v>
+      </c>
+      <c r="C184" t="n">
         <v>2.6882</v>
       </c>
-      <c r="C184" t="n">
-        <v>2.7235</v>
-      </c>
       <c r="D184" t="n">
-        <v>3.0045</v>
+        <v>2.7773</v>
       </c>
       <c r="E184" t="n">
-        <v>2.42</v>
+        <v>2.1667</v>
       </c>
       <c r="F184" t="n">
-        <v>1.9211</v>
+        <v>2.2333</v>
       </c>
       <c r="G184" t="n">
-        <v>2.5656</v>
+        <v>2.518</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>21001618</t>
+          <t>21001928</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>2.5059</v>
+        <v>2.3765</v>
       </c>
       <c r="C185" t="n">
-        <v>2.5059</v>
+        <v>1.9882</v>
       </c>
       <c r="D185" t="n">
-        <v>2.5409</v>
+        <v>2.8136</v>
       </c>
       <c r="E185" t="n">
-        <v>2.3</v>
+        <v>2.6733</v>
       </c>
       <c r="F185" t="n">
-        <v>2.87</v>
+        <v>2.795</v>
       </c>
       <c r="G185" t="n">
-        <v>2.5604</v>
+        <v>2.5176</v>
       </c>
       <c r="H185" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>21000409</t>
+          <t>21000591</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2.4882</v>
+        <v>2.9118</v>
       </c>
       <c r="C186" t="n">
-        <v>2.0647</v>
+        <v>2.2529</v>
       </c>
       <c r="D186" t="n">
-        <v>2.3864</v>
+        <v>2.3273</v>
       </c>
       <c r="E186" t="n">
-        <v>2.2</v>
+        <v>2.5933</v>
       </c>
       <c r="F186" t="n">
-        <v>3.5778</v>
+        <v>2.8182</v>
       </c>
       <c r="G186" t="n">
-        <v>2.5539</v>
+        <v>2.5118</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>21001928</t>
+          <t>21001626</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2.3765</v>
+        <v>2.7059</v>
       </c>
       <c r="C187" t="n">
-        <v>1.9882</v>
+        <v>2.7235</v>
       </c>
       <c r="D187" t="n">
-        <v>2.8136</v>
+        <v>1.9722</v>
       </c>
       <c r="E187" t="n">
-        <v>2.6733</v>
+        <v>2.48</v>
       </c>
       <c r="F187" t="n">
-        <v>2.795</v>
+        <v>2.7158</v>
       </c>
       <c r="G187" t="n">
-        <v>2.5505</v>
+        <v>2.5093</v>
       </c>
       <c r="H187" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>21001431</t>
+          <t>21001405</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2.7882</v>
+        <v>2.6118</v>
       </c>
       <c r="C188" t="n">
-        <v>2.6882</v>
+        <v>2.2882</v>
       </c>
       <c r="D188" t="n">
-        <v>2.7773</v>
+        <v>2.8227</v>
       </c>
       <c r="E188" t="n">
-        <v>2.1667</v>
+        <v>2.2733</v>
       </c>
       <c r="F188" t="n">
-        <v>2.2333</v>
+        <v>2.8667</v>
       </c>
       <c r="G188" t="n">
-        <v>2.5494</v>
+        <v>2.5022</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>21000662</t>
+          <t>21000409</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>2.6118</v>
+        <v>2.4882</v>
       </c>
       <c r="C189" t="n">
-        <v>2.5059</v>
+        <v>2.0647</v>
       </c>
       <c r="D189" t="n">
-        <v>2.4955</v>
+        <v>2.3864</v>
       </c>
       <c r="E189" t="n">
-        <v>2.5667</v>
+        <v>2.2</v>
       </c>
       <c r="F189" t="n">
-        <v>2.515</v>
+        <v>3.5778</v>
       </c>
       <c r="G189" t="n">
-        <v>2.5352</v>
+        <v>2.4854</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>21001081</t>
+          <t>21000662</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>2.3235</v>
+        <v>2.6118</v>
       </c>
       <c r="C190" t="n">
-        <v>2.2118</v>
+        <v>2.5059</v>
       </c>
       <c r="D190" t="n">
-        <v>2.7136</v>
+        <v>2.4955</v>
       </c>
       <c r="E190" t="n">
-        <v>2.4</v>
+        <v>2.5667</v>
       </c>
       <c r="F190" t="n">
-        <v>2.845</v>
+        <v>2.515</v>
       </c>
       <c r="G190" t="n">
-        <v>2.5242</v>
+        <v>2.4802</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>21001626</t>
+          <t>21001979</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>2.7059</v>
+        <v>2.4059</v>
       </c>
       <c r="C191" t="n">
-        <v>2.7235</v>
+        <v>2.6176</v>
       </c>
       <c r="D191" t="n">
-        <v>1.9722</v>
+        <v>2.5364</v>
       </c>
       <c r="E191" t="n">
-        <v>2.48</v>
+        <v>2.8267</v>
       </c>
       <c r="F191" t="n">
-        <v>2.7158</v>
+        <v>2.0611</v>
       </c>
       <c r="G191" t="n">
-        <v>2.5186</v>
+        <v>2.4798</v>
       </c>
       <c r="H191" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>21000786</t>
+          <t>21001227</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>2.1059</v>
+        <v>2.1824</v>
       </c>
       <c r="C192" t="n">
-        <v>2.3706</v>
+        <v>2.8647</v>
       </c>
       <c r="D192" t="n">
-        <v>2.7636</v>
+        <v>1.9409</v>
       </c>
       <c r="E192" t="n">
-        <v>2.3733</v>
+        <v>2.38</v>
       </c>
       <c r="F192" t="n">
-        <v>2.6889</v>
+        <v>3.1389</v>
       </c>
       <c r="G192" t="n">
-        <v>2.482</v>
+        <v>2.4798</v>
       </c>
       <c r="H192" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>21001979</t>
+          <t>20000561</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2.4059</v>
+        <v>2.5588</v>
       </c>
       <c r="C193" t="n">
-        <v>2.6176</v>
+        <v>2.6118</v>
       </c>
       <c r="D193" t="n">
-        <v>2.5364</v>
+        <v>2.9955</v>
       </c>
       <c r="E193" t="n">
-        <v>2.8267</v>
+        <v>2.88</v>
       </c>
       <c r="F193" t="n">
-        <v>2.0611</v>
+        <v>2.22</v>
       </c>
       <c r="G193" t="n">
-        <v>2.4798</v>
+        <v>2.4747</v>
       </c>
       <c r="H193" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>21001227</t>
+          <t>21001839</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>2.1824</v>
+        <v>2.3412</v>
       </c>
       <c r="C194" t="n">
-        <v>2.8647</v>
+        <v>2.5118</v>
       </c>
       <c r="D194" t="n">
-        <v>1.9409</v>
+        <v>2.4682</v>
       </c>
       <c r="E194" t="n">
-        <v>2.38</v>
+        <v>2.1467</v>
       </c>
       <c r="F194" t="n">
-        <v>3.1389</v>
+        <v>2.6737</v>
       </c>
       <c r="G194" t="n">
-        <v>2.4798</v>
+        <v>2.4422</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>21001189</t>
+          <t>21000786</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>2.3235</v>
+        <v>2.1059</v>
       </c>
       <c r="C195" t="n">
-        <v>1.8</v>
+        <v>2.3706</v>
       </c>
       <c r="D195" t="n">
-        <v>2.8045</v>
+        <v>2.7636</v>
       </c>
       <c r="E195" t="n">
-        <v>2.0067</v>
+        <v>2.3733</v>
       </c>
       <c r="F195" t="n">
-        <v>3.1895</v>
+        <v>2.6889</v>
       </c>
       <c r="G195" t="n">
-        <v>2.4722</v>
+        <v>2.4371</v>
       </c>
       <c r="H195" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>21001839</t>
+          <t>21000271</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>2.3412</v>
+        <v>2.5059</v>
       </c>
       <c r="C196" t="n">
-        <v>2.5118</v>
+        <v>2.5235</v>
       </c>
       <c r="D196" t="n">
-        <v>2.4682</v>
+        <v>2.325</v>
       </c>
       <c r="E196" t="n">
-        <v>2.1467</v>
+        <v>2.46</v>
       </c>
       <c r="F196" t="n">
-        <v>2.6737</v>
+        <v>2.4111</v>
       </c>
       <c r="G196" t="n">
-        <v>2.4422</v>
+        <v>2.4161</v>
       </c>
       <c r="H196" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>21000271</t>
+          <t>21001251</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2.5059</v>
+        <v>2.4706</v>
       </c>
       <c r="C197" t="n">
-        <v>2.5235</v>
+        <v>2.0882</v>
       </c>
       <c r="D197" t="n">
-        <v>2.325</v>
+        <v>2.7545</v>
       </c>
       <c r="E197" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="F197" t="n">
-        <v>2.4111</v>
+        <v>2.5611</v>
       </c>
       <c r="G197" t="n">
-        <v>2.4402</v>
+        <v>2.4146</v>
       </c>
       <c r="H197" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>21000174</t>
+          <t>21000425</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3.0647</v>
+        <v>2.0706</v>
       </c>
       <c r="C198" t="n">
-        <v>2.3706</v>
+        <v>2.1294</v>
       </c>
       <c r="D198" t="n">
-        <v>2.6318</v>
+        <v>2.3545</v>
       </c>
       <c r="E198" t="n">
-        <v>2.5333</v>
+        <v>2.5133</v>
       </c>
       <c r="F198" t="n">
-        <v>1.625</v>
+        <v>2.95</v>
       </c>
       <c r="G198" t="n">
-        <v>2.4264</v>
+        <v>2.4045</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>21001251</t>
+          <t>21000174</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>2.4706</v>
+        <v>3.0647</v>
       </c>
       <c r="C199" t="n">
-        <v>2.0882</v>
+        <v>2.3706</v>
       </c>
       <c r="D199" t="n">
-        <v>2.7545</v>
+        <v>2.6318</v>
       </c>
       <c r="E199" t="n">
-        <v>2.1</v>
+        <v>2.5333</v>
       </c>
       <c r="F199" t="n">
-        <v>2.5611</v>
+        <v>1.625</v>
       </c>
       <c r="G199" t="n">
-        <v>2.4236</v>
+        <v>2.4044</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>21000352</t>
+          <t>21002193</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2.3706</v>
+        <v>2.0706</v>
       </c>
       <c r="C200" t="n">
-        <v>2.2941</v>
+        <v>2.0118</v>
       </c>
       <c r="D200" t="n">
-        <v>2.45</v>
+        <v>2.2455</v>
       </c>
       <c r="E200" t="n">
-        <v>2.1667</v>
+        <v>2.3867</v>
       </c>
       <c r="F200" t="n">
-        <v>2.67</v>
+        <v>3.2211</v>
       </c>
       <c r="G200" t="n">
-        <v>2.4077</v>
+        <v>2.3978</v>
       </c>
       <c r="H200" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>21000425</t>
+          <t>21001359</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2.0706</v>
+        <v>2.5647</v>
       </c>
       <c r="C201" t="n">
-        <v>2.1294</v>
+        <v>2.0941</v>
       </c>
       <c r="D201" t="n">
-        <v>2.3545</v>
+        <v>2.0636</v>
       </c>
       <c r="E201" t="n">
-        <v>2.5133</v>
+        <v>2.2</v>
       </c>
       <c r="F201" t="n">
-        <v>2.95</v>
+        <v>3.0263</v>
       </c>
       <c r="G201" t="n">
-        <v>2.4045</v>
+        <v>2.39</v>
       </c>
       <c r="H201" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>21002193</t>
+          <t>21001189</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>2.0706</v>
+        <v>2.3235</v>
       </c>
       <c r="C202" t="n">
-        <v>2.0118</v>
+        <v>1.8</v>
       </c>
       <c r="D202" t="n">
-        <v>2.2455</v>
+        <v>2.8045</v>
       </c>
       <c r="E202" t="n">
-        <v>2.3867</v>
+        <v>2.0067</v>
       </c>
       <c r="F202" t="n">
-        <v>3.2211</v>
+        <v>3.1895</v>
       </c>
       <c r="G202" t="n">
-        <v>2.3978</v>
+        <v>2.3722</v>
       </c>
       <c r="H202" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>21001359</t>
+          <t>21001962</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>2.5647</v>
+        <v>2.1824</v>
       </c>
       <c r="C203" t="n">
-        <v>2.0941</v>
+        <v>1.9706</v>
       </c>
       <c r="D203" t="n">
-        <v>2.0636</v>
+        <v>2.7045</v>
       </c>
       <c r="E203" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="F203" t="n">
-        <v>3.0263</v>
+        <v>2.8278</v>
       </c>
       <c r="G203" t="n">
-        <v>2.39</v>
+        <v>2.3607</v>
       </c>
       <c r="H203" t="n">
         <v>9</v>
@@ -6134,29 +6134,29 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>21001962</t>
+          <t>21000352</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>2.1824</v>
+        <v>2.3706</v>
       </c>
       <c r="C204" t="n">
-        <v>1.9706</v>
+        <v>2.2941</v>
       </c>
       <c r="D204" t="n">
-        <v>2.7045</v>
+        <v>2.45</v>
       </c>
       <c r="E204" t="n">
-        <v>1.94</v>
+        <v>2.1667</v>
       </c>
       <c r="F204" t="n">
-        <v>2.8278</v>
+        <v>2.67</v>
       </c>
       <c r="G204" t="n">
-        <v>2.3607</v>
+        <v>2.3264</v>
       </c>
       <c r="H204" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205">
@@ -6209,7 +6209,7 @@
         <v>3.0526</v>
       </c>
       <c r="G206" t="n">
-        <v>2.2944</v>
+        <v>2.2522</v>
       </c>
       <c r="H206" t="n">
         <v>12</v>
@@ -6218,26 +6218,26 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>21002258</t>
+          <t>21000867</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>2.3882</v>
+        <v>2.2353</v>
       </c>
       <c r="C207" t="n">
-        <v>2.2765</v>
+        <v>2.2471</v>
       </c>
       <c r="D207" t="n">
-        <v>2.2364</v>
+        <v>2.3273</v>
       </c>
       <c r="E207" t="n">
-        <v>2.0467</v>
+        <v>2.32</v>
       </c>
       <c r="F207" t="n">
-        <v>2.255</v>
+        <v>2.0579</v>
       </c>
       <c r="G207" t="n">
-        <v>2.2451</v>
+        <v>2.2367</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -6246,197 +6246,197 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>21001022</t>
+          <t>21002258</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>2.4</v>
+        <v>2.3882</v>
       </c>
       <c r="C208" t="n">
-        <v>2.2941</v>
+        <v>2.2765</v>
       </c>
       <c r="D208" t="n">
-        <v>2.25</v>
+        <v>2.2364</v>
       </c>
       <c r="E208" t="n">
-        <v>1.64</v>
+        <v>2.0467</v>
       </c>
       <c r="F208" t="n">
-        <v>2.5529</v>
+        <v>2.255</v>
       </c>
       <c r="G208" t="n">
-        <v>2.242</v>
+        <v>2.1703</v>
       </c>
       <c r="H208" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>21000867</t>
+          <t>21001022</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>2.2353</v>
+        <v>2.4</v>
       </c>
       <c r="C209" t="n">
-        <v>2.2471</v>
+        <v>2.2941</v>
       </c>
       <c r="D209" t="n">
-        <v>2.3273</v>
+        <v>2.25</v>
       </c>
       <c r="E209" t="n">
-        <v>2.32</v>
+        <v>1.64</v>
       </c>
       <c r="F209" t="n">
-        <v>2.0579</v>
+        <v>2.5529</v>
       </c>
       <c r="G209" t="n">
-        <v>2.2367</v>
+        <v>2.1625</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>21000281</t>
+          <t>21000336</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1.7647</v>
+        <v>2.2176</v>
       </c>
       <c r="C210" t="n">
-        <v>2.2882</v>
+        <v>2.0294</v>
       </c>
       <c r="D210" t="n">
-        <v>2.2591</v>
+        <v>2.1409</v>
       </c>
       <c r="E210" t="n">
-        <v>2.4</v>
+        <v>1.8067</v>
       </c>
       <c r="F210" t="n">
-        <v>2.3556</v>
+        <v>2.51</v>
       </c>
       <c r="G210" t="n">
-        <v>2.2135</v>
+        <v>2.1604</v>
       </c>
       <c r="H210" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>21002223</t>
+          <t>21001197</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>2.3588</v>
+        <v>1.8647</v>
       </c>
       <c r="C211" t="n">
-        <v>2.1294</v>
+        <v>2.3059</v>
       </c>
       <c r="D211" t="n">
-        <v>2.0773</v>
+        <v>1.8955</v>
       </c>
       <c r="E211" t="n">
-        <v>1.8467</v>
+        <v>2.3733</v>
       </c>
       <c r="F211" t="n">
-        <v>2.46</v>
+        <v>2.4389</v>
       </c>
       <c r="G211" t="n">
-        <v>2.1857</v>
+        <v>2.1494</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>21000336</t>
+          <t>21001006</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>2.2176</v>
+        <v>1.9182</v>
       </c>
       <c r="C212" t="n">
-        <v>2.0294</v>
+        <v>1.7176</v>
       </c>
       <c r="D212" t="n">
-        <v>2.1409</v>
+        <v>2.0409</v>
       </c>
       <c r="E212" t="n">
-        <v>1.8067</v>
+        <v>1.8733</v>
       </c>
       <c r="F212" t="n">
-        <v>2.51</v>
+        <v>3.24</v>
       </c>
       <c r="G212" t="n">
-        <v>2.1604</v>
+        <v>2.1488</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>21001197</t>
+          <t>21000281</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1.8647</v>
+        <v>1.7647</v>
       </c>
       <c r="C213" t="n">
-        <v>2.3059</v>
+        <v>2.2882</v>
       </c>
       <c r="D213" t="n">
-        <v>1.8955</v>
+        <v>2.2591</v>
       </c>
       <c r="E213" t="n">
-        <v>2.3733</v>
+        <v>2.4</v>
       </c>
       <c r="F213" t="n">
-        <v>2.4389</v>
+        <v>2.3556</v>
       </c>
       <c r="G213" t="n">
-        <v>2.1584</v>
+        <v>2.1236</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>21001006</t>
+          <t>21002223</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1.9182</v>
+        <v>2.3588</v>
       </c>
       <c r="C214" t="n">
-        <v>1.7176</v>
+        <v>2.1294</v>
       </c>
       <c r="D214" t="n">
-        <v>2.0409</v>
+        <v>2.0773</v>
       </c>
       <c r="E214" t="n">
-        <v>1.8733</v>
+        <v>1.8467</v>
       </c>
       <c r="F214" t="n">
-        <v>3.24</v>
+        <v>2.46</v>
       </c>
       <c r="G214" t="n">
-        <v>2.1488</v>
+        <v>2.0879</v>
       </c>
       <c r="H214" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -6461,7 +6461,7 @@
         <v>1.7182</v>
       </c>
       <c r="G215" t="n">
-        <v>1.8323</v>
+        <v>1.8172</v>
       </c>
       <c r="H215" t="n">
         <v>30</v>
@@ -6489,7 +6489,7 @@
         <v>1.6278</v>
       </c>
       <c r="G216" t="n">
-        <v>1.7528</v>
+        <v>1.6989</v>
       </c>
       <c r="H216" t="n">
         <v>32</v>
@@ -6517,7 +6517,7 @@
         <v>3</v>
       </c>
       <c r="G217" t="n">
-        <v>1.7178</v>
+        <v>1.6844</v>
       </c>
       <c r="H217" t="n">
         <v>18</v>

--- a/data/summary/GPA_Summary.xlsx
+++ b/data/summary/GPA_Summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>TotalMC</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Rank</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,6 +507,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -530,6 +538,9 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -558,6 +569,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,6 +600,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -614,6 +631,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -642,6 +662,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -670,6 +693,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -698,6 +724,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -726,6 +755,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -754,6 +786,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -782,6 +817,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -810,6 +848,9 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
+      <c r="I13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -838,6 +879,9 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -866,6 +910,9 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -894,6 +941,9 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -922,6 +972,9 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -950,6 +1003,9 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -978,6 +1034,9 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1006,6 +1065,9 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1034,6 +1096,9 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1062,6 +1127,9 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1090,6 +1158,9 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1118,6 +1189,9 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
+      <c r="I24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1146,6 +1220,9 @@
       <c r="H25" t="n">
         <v>5</v>
       </c>
+      <c r="I25" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1174,6 +1251,9 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1202,6 +1282,9 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
+      <c r="I27" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1230,6 +1313,9 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1258,6 +1344,9 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1286,6 +1375,9 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1314,6 +1406,9 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1342,6 +1437,9 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1370,6 +1468,9 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1398,6 +1499,9 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1426,6 +1530,9 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1454,6 +1561,9 @@
       <c r="H36" t="n">
         <v>2</v>
       </c>
+      <c r="I36" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1482,6 +1592,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1510,6 +1623,9 @@
       <c r="H38" t="n">
         <v>2</v>
       </c>
+      <c r="I38" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1538,6 +1654,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1566,6 +1685,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1594,6 +1716,9 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1622,6 +1747,9 @@
       <c r="H42" t="n">
         <v>3</v>
       </c>
+      <c r="I42" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1650,6 +1778,9 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1678,6 +1809,9 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1706,6 +1840,9 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1734,6 +1871,9 @@
       <c r="H46" t="n">
         <v>3</v>
       </c>
+      <c r="I46" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1762,6 +1902,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1790,6 +1933,9 @@
       <c r="H48" t="n">
         <v>2</v>
       </c>
+      <c r="I48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1818,6 +1964,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1846,6 +1995,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1874,6 +2026,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1902,6 +2057,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1930,6 +2088,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1958,6 +2119,9 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
+      <c r="I54" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1986,6 +2150,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2014,6 +2181,9 @@
       <c r="H56" t="n">
         <v>3</v>
       </c>
+      <c r="I56" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2042,6 +2212,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2070,6 +2243,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2098,6 +2274,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2126,6 +2305,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2154,6 +2336,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2182,6 +2367,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2210,6 +2398,9 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
+      <c r="I63" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2238,6 +2429,9 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
+      <c r="I64" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2266,6 +2460,9 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
+      <c r="I65" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2294,6 +2491,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
+      <c r="I66" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2322,6 +2522,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2350,6 +2553,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="I68" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2378,6 +2584,9 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2406,6 +2615,9 @@
       <c r="H70" t="n">
         <v>6</v>
       </c>
+      <c r="I70" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2434,6 +2646,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
+      <c r="I71" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2462,6 +2677,9 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2490,6 +2708,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2518,6 +2739,9 @@
       <c r="H74" t="n">
         <v>9</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2546,6 +2770,9 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2574,6 +2801,9 @@
       <c r="H76" t="n">
         <v>3</v>
       </c>
+      <c r="I76" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2602,6 +2832,9 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2630,6 +2863,9 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
+      <c r="I78" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2658,6 +2894,9 @@
       <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="I79" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2686,6 +2925,9 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
+      <c r="I80" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2714,6 +2956,9 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2742,6 +2987,9 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
+      <c r="I82" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2770,6 +3018,9 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2798,6 +3049,9 @@
       <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="I84" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2826,6 +3080,9 @@
       <c r="H85" t="n">
         <v>3</v>
       </c>
+      <c r="I85" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2854,6 +3111,9 @@
       <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="I86" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2882,6 +3142,9 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2910,6 +3173,9 @@
       <c r="H88" t="n">
         <v>4</v>
       </c>
+      <c r="I88" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2938,6 +3204,9 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2966,6 +3235,9 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2994,6 +3266,9 @@
       <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="I91" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3022,6 +3297,9 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3050,6 +3328,9 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
+      <c r="I93" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3078,6 +3359,9 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3106,6 +3390,9 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3134,6 +3421,9 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3162,6 +3452,9 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
+      <c r="I97" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3190,6 +3483,9 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3218,6 +3514,9 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3246,6 +3545,9 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3274,6 +3576,9 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3302,6 +3607,9 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
+      <c r="I102" t="n">
+        <v>101</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3330,6 +3638,9 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
+      <c r="I103" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3358,6 +3669,9 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
+      <c r="I104" t="n">
+        <v>103</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3386,6 +3700,9 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
+      <c r="I105" t="n">
+        <v>104</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3414,6 +3731,9 @@
       <c r="H106" t="n">
         <v>4</v>
       </c>
+      <c r="I106" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3442,6 +3762,9 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
+      <c r="I107" t="n">
+        <v>106</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3470,6 +3793,9 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
+      <c r="I108" t="n">
+        <v>107</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3498,6 +3824,9 @@
       <c r="H109" t="n">
         <v>6</v>
       </c>
+      <c r="I109" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3526,6 +3855,9 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
+      <c r="I110" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3554,6 +3886,9 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
+      <c r="I111" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3582,6 +3917,9 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
+      <c r="I112" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3610,6 +3948,9 @@
       <c r="H113" t="n">
         <v>9</v>
       </c>
+      <c r="I113" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3638,6 +3979,9 @@
       <c r="H114" t="n">
         <v>9</v>
       </c>
+      <c r="I114" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3666,6 +4010,9 @@
       <c r="H115" t="n">
         <v>9</v>
       </c>
+      <c r="I115" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3694,6 +4041,9 @@
       <c r="H116" t="n">
         <v>4</v>
       </c>
+      <c r="I116" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3722,6 +4072,9 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
+      <c r="I117" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3750,6 +4103,9 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
+      <c r="I118" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3778,6 +4134,9 @@
       <c r="H119" t="n">
         <v>24</v>
       </c>
+      <c r="I119" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3806,6 +4165,9 @@
       <c r="H120" t="n">
         <v>5</v>
       </c>
+      <c r="I120" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3834,6 +4196,9 @@
       <c r="H121" t="n">
         <v>12</v>
       </c>
+      <c r="I121" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3862,6 +4227,9 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
+      <c r="I122" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3890,6 +4258,9 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
+      <c r="I123" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3918,6 +4289,9 @@
       <c r="H124" t="n">
         <v>2</v>
       </c>
+      <c r="I124" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3946,6 +4320,9 @@
       <c r="H125" t="n">
         <v>4</v>
       </c>
+      <c r="I125" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3974,6 +4351,9 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
+      <c r="I126" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -4002,6 +4382,9 @@
       <c r="H127" t="n">
         <v>3</v>
       </c>
+      <c r="I127" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -4030,6 +4413,9 @@
       <c r="H128" t="n">
         <v>3</v>
       </c>
+      <c r="I128" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -4058,6 +4444,9 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
+      <c r="I129" t="n">
+        <v>128</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -4086,6 +4475,9 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
+      <c r="I130" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -4114,6 +4506,9 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
+      <c r="I131" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -4142,6 +4537,9 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
+      <c r="I132" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -4170,6 +4568,9 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
+      <c r="I133" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -4198,6 +4599,9 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
+      <c r="I134" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -4226,6 +4630,9 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
+      <c r="I135" t="n">
+        <v>134</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -4254,6 +4661,9 @@
       <c r="H136" t="n">
         <v>2</v>
       </c>
+      <c r="I136" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -4282,6 +4692,9 @@
       <c r="H137" t="n">
         <v>11</v>
       </c>
+      <c r="I137" t="n">
+        <v>136</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -4310,6 +4723,9 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
+      <c r="I138" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4338,6 +4754,9 @@
       <c r="H139" t="n">
         <v>2</v>
       </c>
+      <c r="I139" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -4366,6 +4785,9 @@
       <c r="H140" t="n">
         <v>17</v>
       </c>
+      <c r="I140" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -4394,6 +4816,9 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
+      <c r="I141" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4422,6 +4847,9 @@
       <c r="H142" t="n">
         <v>18</v>
       </c>
+      <c r="I142" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -4450,6 +4878,9 @@
       <c r="H143" t="n">
         <v>7</v>
       </c>
+      <c r="I143" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -4478,6 +4909,9 @@
       <c r="H144" t="n">
         <v>2</v>
       </c>
+      <c r="I144" t="n">
+        <v>143</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -4506,6 +4940,9 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
+      <c r="I145" t="n">
+        <v>144</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4534,6 +4971,9 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
+      <c r="I146" t="n">
+        <v>145</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4562,6 +5002,9 @@
       <c r="H147" t="n">
         <v>7</v>
       </c>
+      <c r="I147" t="n">
+        <v>146</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4590,6 +5033,9 @@
       <c r="H148" t="n">
         <v>19</v>
       </c>
+      <c r="I148" t="n">
+        <v>147</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4618,6 +5064,9 @@
       <c r="H149" t="n">
         <v>2</v>
       </c>
+      <c r="I149" t="n">
+        <v>148</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4646,6 +5095,9 @@
       <c r="H150" t="n">
         <v>6</v>
       </c>
+      <c r="I150" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4674,6 +5126,9 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
+      <c r="I151" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4702,6 +5157,9 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
+      <c r="I152" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4730,6 +5188,9 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
+      <c r="I153" t="n">
+        <v>152</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4758,6 +5219,9 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
+      <c r="I154" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4786,6 +5250,9 @@
       <c r="H155" t="n">
         <v>7</v>
       </c>
+      <c r="I155" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4814,6 +5281,9 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
+      <c r="I156" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4842,6 +5312,9 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
+      <c r="I157" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4870,6 +5343,9 @@
       <c r="H158" t="n">
         <v>5</v>
       </c>
+      <c r="I158" t="n">
+        <v>157</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4898,6 +5374,9 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
+      <c r="I159" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4926,6 +5405,9 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
+      <c r="I160" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4954,6 +5436,9 @@
       <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="I161" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4982,6 +5467,9 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
+      <c r="I162" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -5010,6 +5498,9 @@
       <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="I163" t="n">
+        <v>162</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -5038,6 +5529,9 @@
       <c r="H164" t="n">
         <v>9</v>
       </c>
+      <c r="I164" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -5066,6 +5560,9 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
+      <c r="I165" t="n">
+        <v>164</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -5094,6 +5591,9 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
+      <c r="I166" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -5122,6 +5622,9 @@
       <c r="H167" t="n">
         <v>3</v>
       </c>
+      <c r="I167" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -5150,6 +5653,9 @@
       <c r="H168" t="n">
         <v>3</v>
       </c>
+      <c r="I168" t="n">
+        <v>167</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -5178,6 +5684,9 @@
       <c r="H169" t="n">
         <v>8</v>
       </c>
+      <c r="I169" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -5206,6 +5715,9 @@
       <c r="H170" t="n">
         <v>23</v>
       </c>
+      <c r="I170" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -5234,6 +5746,9 @@
       <c r="H171" t="n">
         <v>32</v>
       </c>
+      <c r="I171" t="n">
+        <v>170</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -5262,6 +5777,9 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
+      <c r="I172" t="n">
+        <v>171</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -5290,6 +5808,9 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
+      <c r="I173" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -5318,6 +5839,9 @@
       <c r="H174" t="n">
         <v>16</v>
       </c>
+      <c r="I174" t="n">
+        <v>173</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -5346,6 +5870,9 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
+      <c r="I175" t="n">
+        <v>174</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -5374,6 +5901,9 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
+      <c r="I176" t="n">
+        <v>175</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -5402,6 +5932,9 @@
       <c r="H177" t="n">
         <v>9</v>
       </c>
+      <c r="I177" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5430,6 +5963,9 @@
       <c r="H178" t="n">
         <v>4</v>
       </c>
+      <c r="I178" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -5458,6 +5994,9 @@
       <c r="H179" t="n">
         <v>6</v>
       </c>
+      <c r="I179" t="n">
+        <v>178</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -5486,6 +6025,9 @@
       <c r="H180" t="n">
         <v>10</v>
       </c>
+      <c r="I180" t="n">
+        <v>179</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -5514,6 +6056,9 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
+      <c r="I181" t="n">
+        <v>180</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5542,6 +6087,9 @@
       <c r="H182" t="n">
         <v>11</v>
       </c>
+      <c r="I182" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -5570,6 +6118,9 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
+      <c r="I183" t="n">
+        <v>182</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -5598,6 +6149,9 @@
       <c r="H184" t="n">
         <v>2</v>
       </c>
+      <c r="I184" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5626,6 +6180,9 @@
       <c r="H185" t="n">
         <v>24</v>
       </c>
+      <c r="I185" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5654,6 +6211,9 @@
       <c r="H186" t="n">
         <v>27</v>
       </c>
+      <c r="I186" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5682,6 +6242,9 @@
       <c r="H187" t="n">
         <v>18</v>
       </c>
+      <c r="I187" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5710,6 +6273,9 @@
       <c r="H188" t="n">
         <v>23</v>
       </c>
+      <c r="I188" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5738,6 +6304,9 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
+      <c r="I189" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5766,6 +6335,9 @@
       <c r="H190" t="n">
         <v>3</v>
       </c>
+      <c r="I190" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5794,6 +6366,9 @@
       <c r="H191" t="n">
         <v>6</v>
       </c>
+      <c r="I191" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5822,6 +6397,9 @@
       <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="I192" t="n">
+        <v>190</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5850,6 +6428,9 @@
       <c r="H193" t="n">
         <v>7</v>
       </c>
+      <c r="I193" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5878,6 +6459,9 @@
       <c r="H194" t="n">
         <v>15</v>
       </c>
+      <c r="I194" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5906,6 +6490,9 @@
       <c r="H195" t="n">
         <v>28</v>
       </c>
+      <c r="I195" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5934,6 +6521,9 @@
       <c r="H196" t="n">
         <v>19</v>
       </c>
+      <c r="I196" t="n">
+        <v>195</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5962,6 +6552,9 @@
       <c r="H197" t="n">
         <v>3</v>
       </c>
+      <c r="I197" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5990,6 +6583,9 @@
       <c r="H198" t="n">
         <v>5</v>
       </c>
+      <c r="I198" t="n">
+        <v>197</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -6018,6 +6614,9 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
+      <c r="I199" t="n">
+        <v>198</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -6046,6 +6645,9 @@
       <c r="H200" t="n">
         <v>6</v>
       </c>
+      <c r="I200" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -6074,6 +6676,9 @@
       <c r="H201" t="n">
         <v>9</v>
       </c>
+      <c r="I201" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -6102,6 +6707,9 @@
       <c r="H202" t="n">
         <v>19</v>
       </c>
+      <c r="I202" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -6130,6 +6738,9 @@
       <c r="H203" t="n">
         <v>9</v>
       </c>
+      <c r="I203" t="n">
+        <v>202</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -6158,6 +6769,9 @@
       <c r="H204" t="n">
         <v>15</v>
       </c>
+      <c r="I204" t="n">
+        <v>203</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -6186,6 +6800,9 @@
       <c r="H205" t="n">
         <v>3</v>
       </c>
+      <c r="I205" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -6214,6 +6831,9 @@
       <c r="H206" t="n">
         <v>12</v>
       </c>
+      <c r="I206" t="n">
+        <v>205</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -6242,6 +6862,9 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
+      <c r="I207" t="n">
+        <v>206</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -6270,6 +6893,9 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
+      <c r="I208" t="n">
+        <v>207</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -6298,6 +6924,9 @@
       <c r="H209" t="n">
         <v>7</v>
       </c>
+      <c r="I209" t="n">
+        <v>208</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -6326,6 +6955,9 @@
       <c r="H210" t="n">
         <v>2</v>
       </c>
+      <c r="I210" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -6354,6 +6986,9 @@
       <c r="H211" t="n">
         <v>2</v>
       </c>
+      <c r="I211" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -6382,6 +7017,9 @@
       <c r="H212" t="n">
         <v>27</v>
       </c>
+      <c r="I212" t="n">
+        <v>211</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -6410,6 +7048,9 @@
       <c r="H213" t="n">
         <v>11</v>
       </c>
+      <c r="I213" t="n">
+        <v>212</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -6438,6 +7079,9 @@
       <c r="H214" t="n">
         <v>3</v>
       </c>
+      <c r="I214" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -6466,6 +7110,9 @@
       <c r="H215" t="n">
         <v>30</v>
       </c>
+      <c r="I215" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -6494,6 +7141,9 @@
       <c r="H216" t="n">
         <v>32</v>
       </c>
+      <c r="I216" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -6522,6 +7172,9 @@
       <c r="H217" t="n">
         <v>18</v>
       </c>
+      <c r="I217" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -6550,6 +7203,9 @@
       <c r="H218" t="n">
         <v>26</v>
       </c>
+      <c r="I218" t="n">
+        <v>217</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -6578,6 +7234,9 @@
       <c r="H219" t="n">
         <v>8</v>
       </c>
+      <c r="I219" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -6606,6 +7265,9 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
+      <c r="I220" t="n">
+        <v>219</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -6633,6 +7295,9 @@
       </c>
       <c r="H221" t="n">
         <v>5</v>
+      </c>
+      <c r="I221" t="n">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
